--- a/datasets/rawdata.xlsx
+++ b/datasets/rawdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -866,6 +866,585 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Card;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">art P-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">slap jack, rat slap, kings in the corner</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Auction;Card;Exploration;Fantasy;Farming;Horror;Luck;Medieval;Racing;Roll and Move ;Role-Playing ;Trains;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chemistry either organic or inorganic</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Battleships, Apples to Apples, Cards Against Humanity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Exploration;Fantasy;Horror;Puzzle;Science Fiction;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Math</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Deck-Building ;Card;Deduction;Party ;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Heavy/Immersive Theming;Party/Low-Stakes;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hues and cues, stoned drunk or stupid, cards against humanity, DnD</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Fighting;Luck;Medieval;Party ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Electrical Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Conflict/Competition;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Munchkin”, “Jenga”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tile-Laying ;Territory Building;Strategy;Fantasy;Cooperative ;Card;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Seeking employment</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Undecided but leaning towards engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, poker, exploding kittens, war, hearts, cards against humanity, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Deck-Building ;Economic;Farming;Luck;Party ;Strategy;Territory Building;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Medicine </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Strategy;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Cooperative ;Fantasy;Fighting;Horror;Luck;Medieval;Political;Puzzle;Racing;Role-Playing ;Science Fiction;Strategy;War ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">rec management </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Economics </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Trivia;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Texas holdem </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Sports;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">29</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Geology</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Luck;Trivia;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, exploding kittens, wingspan, cribbage</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card Drafting;Card;Civilization;Deck-Building ;Cooperative ;Deduction;Educational;Exploration;Fantasy;Farming;Fighting;Medieval;Memory;Luck;Miniatures;Party ;Pirates;Political;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Strategy;Trains;Tile-Laying ;Transportation;Travel;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Miniatures;Auction;Card;Cooperative ;Economic;Fantasy;Puzzle;Tile-Laying ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">28</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, pandemic, catan, mancala, ticket to ride, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Civilization;Deck-Building ;Puzzle;Racing;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">26</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wingspan, Chess, Catan, Ragnarok, Go, Unstable Unicorns, Uno, Brew, Dicecapades</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Fantasy;Fighting;Role-Playing ;Roll and Move ;Puzzle;Tile-Laying ;Strategy;Trivia;Travel;War ;Word ;Trains;Territory Building;Social Deduction/Hidden Role;Pirates;Exploration;Educational;Deduction;Civilization;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">White;Black or African American;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Cooperation;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Uno”,”monopoly”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Fantasy;Luck;Party ;War ;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Visual Journalism </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Puzzle-Solving;Trivia;Party/Low-Stakes;Social Deduction/Hidden Role;Heavy/Immersive Theming;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">UNO, Red Dragon Inn, Sorry, The Thing, Betrayal at the House on the Hill, Forbidden Series, Clue, Root, Risk, Axis &amp; Allies, Machi Koro, Pit, Apples to Apples, Battle Ball</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Exploration;Fantasy;Fighting;Luck;Memory;Party ;Miniatures;Puzzle;Racing;Sports;Science Fiction;Strategy;Territory Building;Trains;Transportation;Travel;Trivia;War ;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Strategy;Luck;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Oofta, Kings in the corners, aggravation, clue, unstable unicorns, settlers of Catan, exploding kittens</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Civilization;Cooperative ;Deduction;Fantasy;Exploration;Medieval;Miniatures;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Territory Building;Travel;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Seasonal worker during the summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental studies </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1 monopoly  game 2 mancola game 3 uno game 4 secret hitler</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Civilization;Card;Deck-Building ;Fantasy;Fighting;Farming;Medieval;Miniatures;Role-Playing ;Science Fiction;Strategy;Territory Building;War ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Biology/Math</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Secret Hitler, codenames, uno, 3-13, Betrayal at the House on the Hill</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Deduction;Horror;Memory;Party ;Puzzle;Roll and Move ;Racing;Strategy;Tile-Laying ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Puzzle-Solving;Trivia;Party/Low-Stakes;Strategy;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Taboo, scrabble, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperative ;Strategy;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">WWU Faculty Member</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Yugioh </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Behavioral Neuroscience</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Code Names</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Cooperative ;Deduction;Memory;Party ;Puzzle;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hispanic or Latino;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Employed full-time</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Electrical Engineering </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, Trivial Pursuit, Sequence, Phase 10, Ticket to Ride</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Fighting;Horror;Medieval;Memory;Party ;Puzzle;Racing;Science Fiction;Sports;Trivia;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Buddhism</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Computer Science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Auction;Card;Card Drafting;Civilization;Cooperative ;Deck-Building ;Deduction;Economic;Educational;Exploration;Fantasy;Farming;Fighting;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Political;Puzzle;Racing;Roll and Move ;Science Fiction;Role-Playing ;Strategy;Territory Building;Sports;Social Deduction/Hidden Role;Tile-Laying ;Trains;Transportation;Travel;War ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Geology (paleoclimate)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Trivia;Conflict/Competition;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Battleship, Castle Tower, Mahjong, Chess,</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Trivia;Social Deduction/Hidden Role;Cooperative ;Horror;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Electrical engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Economic;Exploration;Fantasy;Fighting;Farming;Horror;Medieval;Miniatures;Party ;Pirates;Political;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;War ;Worker Placement;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marine Biology and Theater Production</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party/Low-Stakes;Trivia;Puzzle-Solving;Heavy/Immersive Theming;Social Deduction/Hidden Role;Strategy;Luck;Conflict/Competition;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Cooperative ;Deduction;Exploration;Fighting;Horror;Luck;Memory;Party ;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Sports;Strategy;Territory Building;Transportation;Travel;Word ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Computer science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Cooperation;Heavy/Immersive Theming;Conflict/Competition;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Dungeons &amp; Dragons”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Fighting;Medieval;Pirates;Role-Playing ;Science Fiction;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Puzzle-Solving;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Spite and Malice, Azul, Quirkle, clue, settlers of catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Cooperative ;Deduction;Horror;Luck;Memory;Racing;Puzzle;Roll and Move ;Science Fiction;Territory Building;Strategy;Tile-Laying ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Anthropology</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Luck;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clue, card wars, uno, Catan, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Civilization;Deduction;Political;Territory Building;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Biology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Management information systems </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Variations Settlers of Catan, magic the gathering, chess, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Civilization;Deck-Building ;Fantasy;Fighting;Party ;Sports;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">marine bio</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Luck;Conflict/Competition;Social Deduction/Hidden Role;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">monopoly, life, clue, go fish, aggravation</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Memory;Party ;Pirates;Racing;Roll and Move ;Social Deduction/Hidden Role;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Conflict/Competition;Party/Low-Stakes;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, poker, go fish, kanasta</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card Drafting;Card;Civilization;Deck-Building ;Luck;Party ;Political;Trivia;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">History/Holocaust &amp; Genocide Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: Dead of Winter Game 2: Drunk Stoned or Stupid Game 3: Pandemic Game 4: Uno</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Deduction;Educational;Exploration;Fantasy;Farming;Fighting;Horror;Medieval;Party ;Pirates;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Tile-Laying ;Travel;Trivia;Worker Placement;Word ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SPED &amp; ELED</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game one: uno, game two: cribbage, game three: trouble, game four: sorry, game five: parcheesi, game six: monopoly, game seven: scrabble</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Social Deduction/Hidden Role;Party/Low-Stakes;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Monopoly”, “Cards Against Humanity”, “Jackbox”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Social Deduction/Hidden Role;Trivia;Political;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gender-fluid </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Trivia;Party/Low-Stakes;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Party ;Puzzle;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Genderfluid</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Visual Journalism</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Puzzle-Solving;Trivia;Party/Low-Stakes;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Speed (card game)", "Ticket to Ride", "Telestrations", "Smallworld", "Exploding Kittens"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fantasy;Memory;Party ;Puzzle;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Elementary education</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party/Low-Stakes;Trivia;Luck;Strategy;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">The state game, mancala, bullsh*t (the card game), life</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Roll and Move ;Party ;Educational;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">White;Native Hawaiian or Pacific Islander;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Anthropology, Communication Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Gender queer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Asian;Filipino;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Theatre</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Trivia;Strategy;Party/Low-Stakes;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">MTG, Secret Hitler (Mafia), DnD, exploding kittens, You have grabs, monopoly</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Deck-Building ;Deduction;Educational;Fantasy;Exploration;Fighting;Farming;Horror;Luck;Party ;Pirates;Political;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Studio Art</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Dune, monopoly, sorry, exploding kittens, sushi go</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Cooperative ;Exploration;Horror;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Urban Planning and Sustainable Development</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Cooperation;Luck;Strategy;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, poker, mancala, scattegories, cards against humanity, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Auction;Civilization;Cooperative ;Card;Fantasy;Farming;Fighting;Luck;Political;Pirates;Party ;Roll and Move ;Science Fiction;Sports;Trains;Transportation;Travel;War ;Zombies;Word ;Strategy;Puzzle;Racing;Medieval;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Urban Planning and Sustainable Development </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Trivia;Puzzle-Solving;Luck;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“ Cribbage”, “uno”, “Cards Agains Humanity”, “Checkers”, “Spoons”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Luck;Puzzle;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Social Deduction/Hidden Role;Strategy;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Binding of Isaac card game </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Horror;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Social Deduction/Hidden Role;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: settlers of Catan Game 2: uno Game 3:BS (card game) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Auction;Card Drafting;Card;Civilization;Cooperative ;Deck-Building ;Exploration;Fantasy;Farming;Fighting;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Political;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Sports;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;Worker Placement;Word ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">History </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Battleship</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Economic;Fighting;Science Fiction;War ;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Art and design </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Black or African American;White;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Kinesiology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Luck;Heavy/Immersive Theming;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">clue, tunk, poker, chess,</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Card;Cooperative ;Fantasy;Fighting;Horror;Luck;Memory;Party ;Puzzle;Sports;Strategy;Travel;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental Science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Magic The Gathering, Catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Card Drafting;Civilization;Cooperative ;Deck-Building ;Fantasy;Exploration;Fighting;Medieval;Memory;Party ;Roll and Move ;Racing;Role-Playing ;Science Fiction;Strategy;Tile-Laying ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Spanish </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party/Low-Stakes;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">monopoly, ticket to ride, jenga, scrabble, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Exploration;Memory;Party ;Puzzle;Sports;Trains;Travel;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Biochemistry </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Cooperation;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Animals;Adventure;Card Drafting;Card;Civilization;Cooperative ;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -962,8 +1541,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V57" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:V57"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V109" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:V109"/>
   <x:tableColumns count="22">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -4919,11 +5498,3301 @@
         <x:v>276</x:v>
       </x:c>
     </x:row>
+    <x:row r="58" hidden="0">
+      <x:c r="A58">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B58" s="2">
+        <x:v>45243.8322916667</x:v>
+      </x:c>
+      <x:c r="C58" s="2">
+        <x:v>45243.8344791667</x:v>
+      </x:c>
+      <x:c r="D58" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E58" s="10" t="s"/>
+      <x:c r="F58" s="2"/>
+      <x:c r="G58" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H58" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I58" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J58" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K58" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L58" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M58" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N58" s="10" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="O58" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P58" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q58" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="R58" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S58" s="10" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="T58" s="10" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="U58">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V58" s="10" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" hidden="0">
+      <x:c r="A59">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B59" s="2">
+        <x:v>45243.8970486111</x:v>
+      </x:c>
+      <x:c r="C59" s="2">
+        <x:v>45243.8996296296</x:v>
+      </x:c>
+      <x:c r="D59" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E59" s="10" t="s"/>
+      <x:c r="F59" s="2"/>
+      <x:c r="G59" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H59" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I59" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J59" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K59" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L59" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M59" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N59" s="10" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="O59" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P59" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q59" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R59" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S59" s="10" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="T59" s="10" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="U59">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V59" s="10" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" hidden="0">
+      <x:c r="A60">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B60" s="2">
+        <x:v>45244.4829282407</x:v>
+      </x:c>
+      <x:c r="C60" s="2">
+        <x:v>45244.4855208333</x:v>
+      </x:c>
+      <x:c r="D60" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E60" s="10" t="s"/>
+      <x:c r="F60" s="2"/>
+      <x:c r="G60" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H60" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I60" s="7" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="J60" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K60" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L60" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M60" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N60" s="10" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="O60" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="P60" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q60" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R60" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S60" s="10" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="T60" s="10" t="s"/>
+      <x:c r="U60">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V60" s="10" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" hidden="0">
+      <x:c r="A61">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B61" s="2">
+        <x:v>45245.5809375</x:v>
+      </x:c>
+      <x:c r="C61" s="2">
+        <x:v>45245.5825231481</x:v>
+      </x:c>
+      <x:c r="D61" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E61" s="10" t="s"/>
+      <x:c r="F61" s="2"/>
+      <x:c r="G61" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H61" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I61" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J61" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K61" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L61" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M61" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N61" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O61" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P61" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q61" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R61" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S61" s="10" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="T61" s="10" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="U61">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V61" s="10" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" hidden="0">
+      <x:c r="A62">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B62" s="2">
+        <x:v>45245.6174074074</x:v>
+      </x:c>
+      <x:c r="C62" s="2">
+        <x:v>45245.6223726852</x:v>
+      </x:c>
+      <x:c r="D62" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E62" s="10" t="s"/>
+      <x:c r="F62" s="2"/>
+      <x:c r="G62" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H62" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I62" s="10" t="s"/>
+      <x:c r="J62" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K62" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L62" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M62" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N62" s="10" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="O62" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P62" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q62" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R62" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S62" s="10" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="T62" s="10" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="U62">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V62" s="10" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" hidden="0">
+      <x:c r="A63">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B63" s="2">
+        <x:v>45246.489212963</x:v>
+      </x:c>
+      <x:c r="C63" s="2">
+        <x:v>45246.4925115741</x:v>
+      </x:c>
+      <x:c r="D63" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E63" s="10" t="s"/>
+      <x:c r="F63" s="2"/>
+      <x:c r="G63" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H63" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I63" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J63" s="10" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="K63" s="10" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="L63" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M63" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N63" s="10" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="O63" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P63" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q63" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R63" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S63" s="10" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="T63" s="10" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="U63">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V63" s="10" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" hidden="0">
+      <x:c r="A64">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B64" s="2">
+        <x:v>45246.5026388889</x:v>
+      </x:c>
+      <x:c r="C64" s="2">
+        <x:v>45246.5049421296</x:v>
+      </x:c>
+      <x:c r="D64" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E64" s="10" t="s"/>
+      <x:c r="F64" s="2"/>
+      <x:c r="G64" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H64" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I64" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J64" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K64" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L64" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M64" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N64" s="10" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="O64" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P64" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q64" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R64" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S64" s="10" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="T64" s="10" t="s"/>
+      <x:c r="U64">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V64" s="10" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" hidden="0">
+      <x:c r="A65">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B65" s="2">
+        <x:v>45246.5054398148</x:v>
+      </x:c>
+      <x:c r="C65" s="2">
+        <x:v>45246.5067476852</x:v>
+      </x:c>
+      <x:c r="D65" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E65" s="10" t="s"/>
+      <x:c r="F65" s="2"/>
+      <x:c r="G65" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H65" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I65" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J65" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K65" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L65" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M65" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N65" s="10" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="O65" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P65" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q65" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R65" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S65" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T65" s="10" t="s"/>
+      <x:c r="U65">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V65" s="10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" hidden="0">
+      <x:c r="A66">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B66" s="2">
+        <x:v>45246.5050115741</x:v>
+      </x:c>
+      <x:c r="C66" s="2">
+        <x:v>45246.5069907407</x:v>
+      </x:c>
+      <x:c r="D66" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E66" s="10" t="s"/>
+      <x:c r="F66" s="2"/>
+      <x:c r="G66" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H66" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I66" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J66" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K66" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L66" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M66" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N66" s="10" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="O66" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P66" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q66" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R66" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S66" s="10" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="T66" s="10" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="U66">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V66" s="10" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" hidden="0">
+      <x:c r="A67">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B67" s="2">
+        <x:v>45246.5041087963</x:v>
+      </x:c>
+      <x:c r="C67" s="2">
+        <x:v>45246.5077314815</x:v>
+      </x:c>
+      <x:c r="D67" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E67" s="10" t="s"/>
+      <x:c r="F67" s="2"/>
+      <x:c r="G67" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H67" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I67" s="7" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="J67" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K67" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L67" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M67" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N67" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O67" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P67" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q67" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R67" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S67" s="10" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="T67" s="10" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="U67">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V67" s="10" t="s">
+        <x:v>312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" hidden="0">
+      <x:c r="A68">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B68" s="2">
+        <x:v>45246.5061111111</x:v>
+      </x:c>
+      <x:c r="C68" s="2">
+        <x:v>45246.5078125</x:v>
+      </x:c>
+      <x:c r="D68" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E68" s="10" t="s"/>
+      <x:c r="F68" s="2"/>
+      <x:c r="G68" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H68" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I68" s="7" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="J68" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K68" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L68" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M68" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N68" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O68" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P68" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q68" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R68" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S68" s="10" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="T68" s="10" t="s"/>
+      <x:c r="U68">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V68" s="10" t="s">
+        <x:v>315</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" hidden="0">
+      <x:c r="A69">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B69" s="2">
+        <x:v>45246.5039351852</x:v>
+      </x:c>
+      <x:c r="C69" s="2">
+        <x:v>45246.5085532407</x:v>
+      </x:c>
+      <x:c r="D69" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E69" s="10" t="s"/>
+      <x:c r="F69" s="2"/>
+      <x:c r="G69" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H69" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I69" s="7" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="J69" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K69" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L69" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M69" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N69" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O69" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P69" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q69" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R69" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S69" s="10" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="T69" s="10" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="U69">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V69" s="10" t="s">
+        <x:v>319</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" hidden="0">
+      <x:c r="A70">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B70" s="2">
+        <x:v>45246.5040277778</x:v>
+      </x:c>
+      <x:c r="C70" s="2">
+        <x:v>45246.5088194444</x:v>
+      </x:c>
+      <x:c r="D70" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E70" s="10" t="s"/>
+      <x:c r="F70" s="2"/>
+      <x:c r="G70" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H70" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I70" s="7" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="J70" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K70" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L70" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M70" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N70" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O70" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P70" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q70" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R70" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S70" s="10" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="T70" s="10" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="U70">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V70" s="10" t="s">
+        <x:v>323</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" hidden="0">
+      <x:c r="A71">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B71" s="2">
+        <x:v>45246.5058217593</x:v>
+      </x:c>
+      <x:c r="C71" s="2">
+        <x:v>45246.509212963</x:v>
+      </x:c>
+      <x:c r="D71" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E71" s="10" t="s"/>
+      <x:c r="F71" s="2"/>
+      <x:c r="G71" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H71" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I71" s="7" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="J71" s="10" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="K71" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L71" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M71" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N71" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O71" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P71" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q71" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R71" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S71" s="10" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="T71" s="10" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="U71">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V71" s="10" t="s">
+        <x:v>327</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" hidden="0">
+      <x:c r="A72">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B72" s="2">
+        <x:v>45246.5077199074</x:v>
+      </x:c>
+      <x:c r="C72" s="2">
+        <x:v>45246.5118518519</x:v>
+      </x:c>
+      <x:c r="D72" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E72" s="10" t="s"/>
+      <x:c r="F72" s="2"/>
+      <x:c r="G72" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H72" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I72" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J72" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K72" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L72" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M72" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N72" s="10" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="O72" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P72" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q72" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R72" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S72" s="10" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="T72" s="10" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="U72">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V72" s="10" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" hidden="0">
+      <x:c r="A73">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B73" s="2">
+        <x:v>45246.5054166667</x:v>
+      </x:c>
+      <x:c r="C73" s="2">
+        <x:v>45246.512037037</x:v>
+      </x:c>
+      <x:c r="D73" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E73" s="10" t="s"/>
+      <x:c r="F73" s="2"/>
+      <x:c r="G73" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H73" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I73" s="7" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="J73" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K73" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L73" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M73" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N73" s="10" t="s"/>
+      <x:c r="O73" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P73" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q73" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R73" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S73" s="10" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="T73" s="10" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="U73">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V73" s="10" t="s">
+        <x:v>334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" hidden="0">
+      <x:c r="A74">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B74" s="2">
+        <x:v>45246.5030208333</x:v>
+      </x:c>
+      <x:c r="C74" s="2">
+        <x:v>45246.5138310185</x:v>
+      </x:c>
+      <x:c r="D74" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E74" s="10" t="s"/>
+      <x:c r="F74" s="2"/>
+      <x:c r="G74" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H74" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I74" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J74" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K74" s="10" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="L74" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M74" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N74" s="10" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="O74" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P74" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q74" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R74" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S74" s="10" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="T74" s="10" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="U74">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V74" s="10" t="s">
+        <x:v>339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" hidden="0">
+      <x:c r="A75">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B75" s="2">
+        <x:v>45246.5227662037</x:v>
+      </x:c>
+      <x:c r="C75" s="2">
+        <x:v>45246.5257523148</x:v>
+      </x:c>
+      <x:c r="D75" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E75" s="10" t="s"/>
+      <x:c r="F75" s="2"/>
+      <x:c r="G75" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H75" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I75" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J75" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K75" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L75" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M75" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N75" s="10" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="O75" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P75" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q75" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R75" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S75" s="10" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="T75" s="10" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="U75">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V75" s="10" t="s">
+        <x:v>343</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" hidden="0">
+      <x:c r="A76">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B76" s="2">
+        <x:v>45246.5233101852</x:v>
+      </x:c>
+      <x:c r="C76" s="2">
+        <x:v>45246.5258449074</x:v>
+      </x:c>
+      <x:c r="D76" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E76" s="10" t="s"/>
+      <x:c r="F76" s="2"/>
+      <x:c r="G76" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H76" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I76" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J76" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K76" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L76" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M76" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N76" s="10" t="s"/>
+      <x:c r="O76" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P76" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q76" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R76" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S76" s="10" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="T76" s="10" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="U76">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V76" s="10" t="s">
+        <x:v>346</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" hidden="0">
+      <x:c r="A77">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B77" s="2">
+        <x:v>45246.5254513889</x:v>
+      </x:c>
+      <x:c r="C77" s="2">
+        <x:v>45246.5268055556</x:v>
+      </x:c>
+      <x:c r="D77" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E77" s="10" t="s"/>
+      <x:c r="F77" s="2"/>
+      <x:c r="G77" s="10" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="H77" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I77" s="7" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="J77" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K77" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L77" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M77" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N77" s="10" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="O77" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P77" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q77" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R77" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="S77" s="10" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="T77" s="10" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="U77">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V77" s="10" t="s"/>
+    </x:row>
+    <x:row r="78" hidden="0">
+      <x:c r="A78">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B78" s="2">
+        <x:v>45246.5260416667</x:v>
+      </x:c>
+      <x:c r="C78" s="2">
+        <x:v>45246.5276736111</x:v>
+      </x:c>
+      <x:c r="D78" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E78" s="10" t="s"/>
+      <x:c r="F78" s="2"/>
+      <x:c r="G78" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H78" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I78" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J78" s="10" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="K78" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L78" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M78" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N78" s="10" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="O78" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P78" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q78" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R78" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S78" s="10" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="T78" s="10" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="U78">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V78" s="10" t="s">
+        <x:v>353</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" hidden="0">
+      <x:c r="A79">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B79" s="2">
+        <x:v>45246.5267361111</x:v>
+      </x:c>
+      <x:c r="C79" s="2">
+        <x:v>45246.5295833333</x:v>
+      </x:c>
+      <x:c r="D79" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E79" s="10" t="s"/>
+      <x:c r="F79" s="2"/>
+      <x:c r="G79" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H79" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I79" s="7" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="J79" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K79" s="10" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="L79" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M79" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N79" s="10" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="O79" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P79" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q79" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R79" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S79" s="10" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="T79" s="10" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="U79">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V79" s="10" t="s">
+        <x:v>359</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" hidden="0">
+      <x:c r="A80">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B80" s="2">
+        <x:v>45246.5286689815</x:v>
+      </x:c>
+      <x:c r="C80" s="2">
+        <x:v>45246.5298032407</x:v>
+      </x:c>
+      <x:c r="D80" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E80" s="10" t="s"/>
+      <x:c r="F80" s="2"/>
+      <x:c r="G80" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H80" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I80" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J80" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K80" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L80" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M80" s="10" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="N80" s="10" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="O80" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P80" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q80" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R80" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S80" s="10" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="T80" s="10" t="s"/>
+      <x:c r="U80">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V80" s="10" t="s">
+        <x:v>362</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" hidden="0">
+      <x:c r="A81">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B81" s="2">
+        <x:v>45246.5260416667</x:v>
+      </x:c>
+      <x:c r="C81" s="2">
+        <x:v>45246.5312152778</x:v>
+      </x:c>
+      <x:c r="D81" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E81" s="10" t="s"/>
+      <x:c r="F81" s="2"/>
+      <x:c r="G81" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H81" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I81" s="7" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="J81" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K81" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L81" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M81" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="N81" s="10" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="O81" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P81" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q81" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R81" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S81" s="10" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="T81" s="10" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="U81">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V81" s="10" t="s">
+        <x:v>366</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" hidden="0">
+      <x:c r="A82">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B82" s="2">
+        <x:v>45246.5333217593</x:v>
+      </x:c>
+      <x:c r="C82" s="2">
+        <x:v>45246.5349884259</x:v>
+      </x:c>
+      <x:c r="D82" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E82" s="10" t="s"/>
+      <x:c r="F82" s="2"/>
+      <x:c r="G82" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H82" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I82" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J82" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K82" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L82" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M82" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N82" s="10" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="O82" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P82" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q82" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R82" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S82" s="10" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="T82" s="10" t="s"/>
+      <x:c r="U82">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V82" s="10" t="s">
+        <x:v>369</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" hidden="0">
+      <x:c r="A83">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B83" s="2">
+        <x:v>45246.5334953704</x:v>
+      </x:c>
+      <x:c r="C83" s="2">
+        <x:v>45246.5360648148</x:v>
+      </x:c>
+      <x:c r="D83" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E83" s="10" t="s"/>
+      <x:c r="F83" s="2"/>
+      <x:c r="G83" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H83" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I83" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J83" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K83" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L83" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M83" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N83" s="10" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="O83" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P83" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q83" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R83" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S83" s="10" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="T83" s="10" t="s"/>
+      <x:c r="U83">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V83" s="10" t="s">
+        <x:v>372</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" hidden="0">
+      <x:c r="A84">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B84" s="2">
+        <x:v>45246.5350694444</x:v>
+      </x:c>
+      <x:c r="C84" s="2">
+        <x:v>45246.5383680556</x:v>
+      </x:c>
+      <x:c r="D84" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E84" s="10" t="s"/>
+      <x:c r="F84" s="2"/>
+      <x:c r="G84" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H84" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I84" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J84" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K84" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L84" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M84" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N84" s="10" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="O84" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P84" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q84" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R84" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S84" s="10" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="T84" s="10" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="U84">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V84" s="10" t="s">
+        <x:v>376</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" hidden="0">
+      <x:c r="A85">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B85" s="2">
+        <x:v>45246.5393518518</x:v>
+      </x:c>
+      <x:c r="C85" s="2">
+        <x:v>45246.5433449074</x:v>
+      </x:c>
+      <x:c r="D85" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E85" s="10" t="s"/>
+      <x:c r="F85" s="2"/>
+      <x:c r="G85" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H85" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I85" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J85" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K85" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L85" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M85" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N85" s="10" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="O85" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P85" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q85" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R85" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S85" s="10" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="T85" s="10" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="U85">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V85" s="10" t="s">
+        <x:v>379</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" hidden="0">
+      <x:c r="A86">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B86" s="2">
+        <x:v>45246.5430555556</x:v>
+      </x:c>
+      <x:c r="C86" s="2">
+        <x:v>45246.5458333333</x:v>
+      </x:c>
+      <x:c r="D86" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E86" s="10" t="s"/>
+      <x:c r="F86" s="2"/>
+      <x:c r="G86" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H86" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I86" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J86" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K86" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L86" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M86" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N86" s="10" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="O86" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P86" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q86" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R86" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S86" s="10" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="T86" s="10" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="U86">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V86" s="10" t="s">
+        <x:v>383</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" hidden="0">
+      <x:c r="A87">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B87" s="2">
+        <x:v>45246.5461574074</x:v>
+      </x:c>
+      <x:c r="C87" s="2">
+        <x:v>45246.5472800926</x:v>
+      </x:c>
+      <x:c r="D87" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E87" s="10" t="s"/>
+      <x:c r="F87" s="2"/>
+      <x:c r="G87" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H87" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I87" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J87" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K87" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L87" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M87" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N87" s="10" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="O87" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P87" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q87" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R87" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S87" s="10" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="T87" s="10" t="s"/>
+      <x:c r="U87">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V87" s="10" t="s"/>
+    </x:row>
+    <x:row r="88" hidden="0">
+      <x:c r="A88">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B88" s="2">
+        <x:v>45246.5465162037</x:v>
+      </x:c>
+      <x:c r="C88" s="2">
+        <x:v>45246.548587963</x:v>
+      </x:c>
+      <x:c r="D88" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E88" s="10" t="s"/>
+      <x:c r="F88" s="2"/>
+      <x:c r="G88" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H88" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I88" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J88" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K88" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L88" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M88" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N88" s="10" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="O88" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P88" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q88" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R88" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S88" s="10" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="T88" s="10" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="U88">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V88" s="10" t="s">
+        <x:v>388</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" hidden="0">
+      <x:c r="A89">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B89" s="2">
+        <x:v>45246.5612615741</x:v>
+      </x:c>
+      <x:c r="C89" s="2">
+        <x:v>45246.5628356481</x:v>
+      </x:c>
+      <x:c r="D89" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E89" s="10" t="s"/>
+      <x:c r="F89" s="2"/>
+      <x:c r="G89" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H89" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I89" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J89" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K89" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L89" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M89" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N89" s="10" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="O89" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P89" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q89" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R89" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S89" s="10" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="T89" s="10" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="U89">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V89" s="10" t="s">
+        <x:v>392</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" hidden="0">
+      <x:c r="A90">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B90" s="2">
+        <x:v>45246.5612847222</x:v>
+      </x:c>
+      <x:c r="C90" s="2">
+        <x:v>45246.5639583333</x:v>
+      </x:c>
+      <x:c r="D90" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E90" s="10" t="s"/>
+      <x:c r="F90" s="2"/>
+      <x:c r="G90" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H90" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I90" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J90" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K90" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L90" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M90" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N90" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="O90" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P90" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q90" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R90" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S90" s="10" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="T90" s="10" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="U90">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V90" s="10" t="s">
+        <x:v>396</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" hidden="0">
+      <x:c r="A91">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B91" s="2">
+        <x:v>45246.5663657407</x:v>
+      </x:c>
+      <x:c r="C91" s="2">
+        <x:v>45246.5684953704</x:v>
+      </x:c>
+      <x:c r="D91" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E91" s="10" t="s"/>
+      <x:c r="F91" s="2"/>
+      <x:c r="G91" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H91" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I91" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J91" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K91" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L91" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M91" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N91" s="10" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="O91" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P91" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q91" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R91" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S91" s="10" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T91" s="10" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="U91">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V91" s="10" t="s">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" hidden="0">
+      <x:c r="A92">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B92" s="2">
+        <x:v>45246.5732986111</x:v>
+      </x:c>
+      <x:c r="C92" s="2">
+        <x:v>45246.5757175926</x:v>
+      </x:c>
+      <x:c r="D92" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E92" s="10" t="s"/>
+      <x:c r="F92" s="2"/>
+      <x:c r="G92" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H92" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I92" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J92" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K92" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L92" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M92" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N92" s="10" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="O92" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P92" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q92" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R92" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S92" s="10" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="T92" s="10" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="U92">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V92" s="10" t="s"/>
+    </x:row>
+    <x:row r="93" hidden="0">
+      <x:c r="A93">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B93" s="2">
+        <x:v>45246.5747916667</x:v>
+      </x:c>
+      <x:c r="C93" s="2">
+        <x:v>45246.5765046296</x:v>
+      </x:c>
+      <x:c r="D93" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E93" s="10" t="s"/>
+      <x:c r="F93" s="2"/>
+      <x:c r="G93" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H93" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I93" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J93" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K93" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L93" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M93" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N93" s="10" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="O93" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P93" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q93" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R93" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S93" s="10" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="T93" s="10" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="U93">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V93" s="10" t="s">
+        <x:v>406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" hidden="0">
+      <x:c r="A94">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B94" s="2">
+        <x:v>45246.5780902778</x:v>
+      </x:c>
+      <x:c r="C94" s="2">
+        <x:v>45246.5802083333</x:v>
+      </x:c>
+      <x:c r="D94" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E94" s="10" t="s"/>
+      <x:c r="F94" s="2"/>
+      <x:c r="G94" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H94" s="10" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="I94" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J94" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K94" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L94" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M94" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N94" s="10" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="O94" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P94" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q94" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R94" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S94" s="10" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="T94" s="10" t="s"/>
+      <x:c r="U94">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V94" s="10" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" hidden="0">
+      <x:c r="A95">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B95" s="2">
+        <x:v>45246.5778240741</x:v>
+      </x:c>
+      <x:c r="C95" s="2">
+        <x:v>45246.5807407407</x:v>
+      </x:c>
+      <x:c r="D95" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E95" s="10" t="s"/>
+      <x:c r="F95" s="2"/>
+      <x:c r="G95" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H95" s="10" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="I95" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J95" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K95" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L95" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M95" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N95" s="10" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="O95" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P95" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q95" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R95" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S95" s="10" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="T95" s="10" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="U95">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V95" s="10" t="s">
+        <x:v>414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" hidden="0">
+      <x:c r="A96">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B96" s="2">
+        <x:v>45246.5450925926</x:v>
+      </x:c>
+      <x:c r="C96" s="2">
+        <x:v>45246.586400463</x:v>
+      </x:c>
+      <x:c r="D96" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E96" s="10" t="s"/>
+      <x:c r="F96" s="2"/>
+      <x:c r="G96" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H96" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I96" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J96" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K96" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L96" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M96" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N96" s="10" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="O96" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P96" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q96" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R96" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S96" s="10" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="T96" s="10" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="U96">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V96" s="10" t="s">
+        <x:v>418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" hidden="0">
+      <x:c r="A97">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B97" s="2">
+        <x:v>45246.5846527778</x:v>
+      </x:c>
+      <x:c r="C97" s="2">
+        <x:v>45246.5868865741</x:v>
+      </x:c>
+      <x:c r="D97" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E97" s="10" t="s"/>
+      <x:c r="F97" s="2"/>
+      <x:c r="G97" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H97" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I97" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J97" s="10" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="K97" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L97" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M97" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N97" s="10" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="O97" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P97" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q97" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R97" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S97" s="10" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="T97" s="10" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="U97">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V97" s="10" t="s">
+        <x:v>422</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" hidden="0">
+      <x:c r="A98">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B98" s="2">
+        <x:v>45246.5847337963</x:v>
+      </x:c>
+      <x:c r="C98" s="2">
+        <x:v>45246.5882060185</x:v>
+      </x:c>
+      <x:c r="D98" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E98" s="10" t="s"/>
+      <x:c r="F98" s="2"/>
+      <x:c r="G98" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H98" s="10" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="I98" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J98" s="10" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="K98" s="10" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="L98" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M98" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N98" s="10" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="O98" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P98" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q98" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R98" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S98" s="10" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="T98" s="10" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="U98">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V98" s="10" t="s">
+        <x:v>428</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" hidden="0">
+      <x:c r="A99">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B99" s="2">
+        <x:v>45246.5845138889</x:v>
+      </x:c>
+      <x:c r="C99" s="2">
+        <x:v>45246.5883333333</x:v>
+      </x:c>
+      <x:c r="D99" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E99" s="10" t="s"/>
+      <x:c r="F99" s="2"/>
+      <x:c r="G99" s="10" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="H99" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I99" s="7" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="J99" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K99" s="10" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="L99" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M99" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N99" s="10" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="O99" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P99" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q99" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R99" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S99" s="10" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="T99" s="10" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="U99">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V99" s="10" t="s">
+        <x:v>431</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" hidden="0">
+      <x:c r="A100">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B100" s="2">
+        <x:v>45246.5883564815</x:v>
+      </x:c>
+      <x:c r="C100" s="2">
+        <x:v>45246.5916203704</x:v>
+      </x:c>
+      <x:c r="D100" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E100" s="10" t="s"/>
+      <x:c r="F100" s="2"/>
+      <x:c r="G100" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H100" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I100" s="7" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="J100" s="10" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="K100" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L100" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M100" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N100" s="10" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="O100" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P100" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q100" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R100" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S100" s="10" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="T100" s="10" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="U100">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V100" s="10" t="s">
+        <x:v>435</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" hidden="0">
+      <x:c r="A101">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B101" s="2">
+        <x:v>45246.5881018518</x:v>
+      </x:c>
+      <x:c r="C101" s="2">
+        <x:v>45246.5922800926</x:v>
+      </x:c>
+      <x:c r="D101" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E101" s="10" t="s"/>
+      <x:c r="F101" s="2"/>
+      <x:c r="G101" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H101" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I101" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J101" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K101" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L101" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M101" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N101" s="10" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="O101" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P101" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q101" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R101" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S101" s="10" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="T101" s="10" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="U101">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V101" s="10" t="s">
+        <x:v>439</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" hidden="0">
+      <x:c r="A102">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B102" s="2">
+        <x:v>45246.5921296296</x:v>
+      </x:c>
+      <x:c r="C102" s="2">
+        <x:v>45246.5930324074</x:v>
+      </x:c>
+      <x:c r="D102" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E102" s="10" t="s"/>
+      <x:c r="F102" s="2"/>
+      <x:c r="G102" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H102" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I102" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J102" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K102" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L102" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M102" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N102" s="10" t="s"/>
+      <x:c r="O102" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P102" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q102" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R102" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S102" s="10" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="T102" s="10" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="U102">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V102" s="10" t="s">
+        <x:v>442</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" hidden="0">
+      <x:c r="A103">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B103" s="2">
+        <x:v>45246.5889236111</x:v>
+      </x:c>
+      <x:c r="C103" s="2">
+        <x:v>45246.5951157407</x:v>
+      </x:c>
+      <x:c r="D103" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E103" s="10" t="s"/>
+      <x:c r="F103" s="2"/>
+      <x:c r="G103" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H103" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I103" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J103" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K103" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L103" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M103" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N103" s="10" t="s"/>
+      <x:c r="O103" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P103" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q103" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R103" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S103" s="10" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="T103" s="10" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="U103">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V103" s="10" t="s">
+        <x:v>445</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" hidden="0">
+      <x:c r="A104">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B104" s="2">
+        <x:v>45246.5978356481</x:v>
+      </x:c>
+      <x:c r="C104" s="2">
+        <x:v>45246.5988541667</x:v>
+      </x:c>
+      <x:c r="D104" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E104" s="10" t="s"/>
+      <x:c r="F104" s="2"/>
+      <x:c r="G104" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H104" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I104" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J104" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K104" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L104" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M104" s="10" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="N104" s="10" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="O104" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P104" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q104" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R104" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S104" s="10" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="T104" s="10" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="U104">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V104" s="10" t="s">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" hidden="0">
+      <x:c r="A105">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B105" s="2">
+        <x:v>45246.5946643518</x:v>
+      </x:c>
+      <x:c r="C105" s="2">
+        <x:v>45246.5988773148</x:v>
+      </x:c>
+      <x:c r="D105" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E105" s="10" t="s"/>
+      <x:c r="F105" s="2"/>
+      <x:c r="G105" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H105" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I105" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J105" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K105" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L105" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M105" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N105" s="10" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="O105" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P105" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q105" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R105" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S105" s="10" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="T105" s="10" t="s"/>
+      <x:c r="U105">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V105" s="10" t="s"/>
+    </x:row>
+    <x:row r="106" hidden="0">
+      <x:c r="A106">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B106" s="2">
+        <x:v>45246.5944212963</x:v>
+      </x:c>
+      <x:c r="C106" s="2">
+        <x:v>45246.5996990741</x:v>
+      </x:c>
+      <x:c r="D106" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E106" s="10" t="s"/>
+      <x:c r="F106" s="2"/>
+      <x:c r="G106" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H106" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I106" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J106" s="10" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="K106" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L106" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M106" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N106" s="10" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="O106" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P106" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q106" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R106" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S106" s="10" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="T106" s="10" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="U106">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V106" s="10" t="s">
+        <x:v>457</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" hidden="0">
+      <x:c r="A107">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B107" s="2">
+        <x:v>45246.6018518518</x:v>
+      </x:c>
+      <x:c r="C107" s="2">
+        <x:v>45246.6032638889</x:v>
+      </x:c>
+      <x:c r="D107" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E107" s="10" t="s"/>
+      <x:c r="F107" s="2"/>
+      <x:c r="G107" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H107" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I107" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J107" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K107" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L107" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M107" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N107" s="10" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="O107" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P107" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q107" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R107" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S107" s="10" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="T107" s="10" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="U107">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V107" s="10" t="s">
+        <x:v>461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" hidden="0">
+      <x:c r="A108">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B108" s="2">
+        <x:v>45246.6017824074</x:v>
+      </x:c>
+      <x:c r="C108" s="2">
+        <x:v>45246.6038078704</x:v>
+      </x:c>
+      <x:c r="D108" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E108" s="10" t="s"/>
+      <x:c r="F108" s="2"/>
+      <x:c r="G108" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H108" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I108" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J108" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K108" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L108" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M108" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N108" s="10" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="O108" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P108" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q108" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R108" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S108" s="10" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="T108" s="10" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="U108">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V108" s="10" t="s">
+        <x:v>465</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" hidden="0">
+      <x:c r="A109">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B109" s="2">
+        <x:v>45246.6032523148</x:v>
+      </x:c>
+      <x:c r="C109" s="2">
+        <x:v>45246.6045949074</x:v>
+      </x:c>
+      <x:c r="D109" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E109" s="10" t="s"/>
+      <x:c r="F109" s="2"/>
+      <x:c r="G109" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H109" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I109" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J109" s="10" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="K109" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L109" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M109" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N109" s="10" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="O109" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P109" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q109" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R109" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S109" s="10" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="T109" s="10" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="U109">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V109" s="10" t="s">
+        <x:v>469</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R156eec764ef64612"/>
+    <x:tablePart r:id="R65661c6f6c754c89"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/datasets/rawdata.xlsx
+++ b/datasets/rawdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -1490,6 +1490,768 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Cards against humanity </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Economic;Horror;Political;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Early Childhood education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Social Deduction/Hidden Role;Heavy/Immersive Theming;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Apples to apples," "speed scrabble," "Sushi go," "Azul," "Kingdomino," "Dutch blitz," "uno," "yeniv"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Party ;Pirates;Social Deduction/Hidden Role;Travel;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mixed ethnicity;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Heavy/Immersive Theming;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Coup, dnd, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Cooperative ;Deduction;Exploration;Fantasy;Horror;Luck;Medieval;Miniatures;Party ;Pirates;Role-Playing ;Social Deduction/Hidden Role;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, Uno, Cards Against Humanity, Life, Apples to Apples</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Unitarian</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mysterium, cards against humanity, uno, heads up, monopoly, life, chutes and ladders, apples to apples, sorry, boggle, yahtzee, go fish, bullshit/I doubt it, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Card;Civilization;Cooperative ;Deduction;Educational;Exploration;Fantasy;Farming;Fighting;Memory;Party ;Pirates;Political;Puzzle;Racing;Role-Playing ;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;Word ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">pagan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">creative writing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Strategy;Conflict/Competition;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Neuroscience </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Chess", "poker", "backgammon ", "pinochle" ,"blackjack", "cribbage"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Memory;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">marine science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marketing </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Animals;Auction;Card Drafting;Card;Civilization;Cooperative ;Deck-Building ;Economic;Deduction;Educational;Exploration;Fantasy;Farming;Fighting;Luck;Horror;Medieval;Memory;Miniatures;Party ;Pirates;Political;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Sports;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;Worker Placement;Word ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPGs like dungeons and dragons, Egyptian rat screw, banagarams, scrabble, boggle, poker</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Deck-Building ;Exploration;Fantasy;Medieval;Memory;Miniatures;Party ;Political;Puzzle;Role-Playing ;Strategy;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Behavioral neuroscience </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Cooperation;Strategy;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Cooperative ;Economic;Educational;Exploration;Farming;Memory;Puzzle;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Seasonally employed </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Pre nursing </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Apples to Apples, Nerts, Here to slay, Solitaire, Cards against humanity, Cribbage, Chess, Go fish, War, Spoons,S</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Cooperative ;Educational;Exploration;Fantasy;Farming;Memory;Puzzle;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Coup, Cribbage, War, Life, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Puzzle;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Conflict/Competition;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Clue, Garbage(card game)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Cooperative ;Deduction;Fantasy;Exploration;Memory;Luck;Party ;Racing;Social Deduction/Hidden Role;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental Science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Civilization;Cooperative ;Deduction;Memory;Party ;Political;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Social Deduction/Hidden Role;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Hearts”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Animals;Cooperative ;Economic;Farming;Party ;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">environmental science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Cooperation;Conflict/Competition;Party/Low-Stakes;Puzzle-Solving;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, Monopoly, War (card game), Slamwich, Anomia,Apples to Apples</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Cooperative ;Civilization;Economic;Exploration;Fantasy;Luck;Medieval;Pirates;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Strategy;Territory Building;Tile-Laying ;Trains;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Graphic Design</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Betrayal at House on the Hill, Star Realms, Uno, Settlers of Catan, Dungeons &amp; Dragons</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Deck-Building ;Civilization;Cooperative ;Card;Adventure;Fantasy;Fighting;Role-Playing ;Science Fiction;Territory Building;Tile-Laying ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Undecided</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Playing card games, scrabble, boggle, bananagrams, cards against humanity, uno, mancala, joker, connect 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Animals;Auction;Card;Cooperative ;Deduction;Memory;Miniatures;Party ;Political;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">English Literature with a Teaching Emphasis</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Chess", "Uno", "Catan", "Azul", "Clue", "Life", "Battleship", "Codenames", "Solitaire"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Card;Civilization;Cooperative ;Deduction;Educational;Exploration;Fantasy;Medieval;Memory;Pirates;Puzzle;Word ;Trivia;Tile-Laying ;Territory Building;Strategy;Social Deduction/Hidden Role;Roll and Move ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Political science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Hearts,” “Bullshit,” “one night ultimate werewolf,” “Clue,” “monopoly,” “chess,” “telestrations,” “dungeons and dragons,” “munchkin,” “keyforge,” “uno”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Fantasy;Luck;Party ;Role-Playing ;Social Deduction/Hidden Role;Deduction;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Self-employed</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card Drafting;Card;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Party/Low-Stakes;Luck;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Crazy 8s, Checkers, Sorry, Monopoly, Spot It, Cards Against Humanity, Apples to Apples, Shoots and Ladders</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">International business </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Luck;Strategy;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Skip- Bo, Uno, BS, Clue, Risk, Left right center, Cards against humanity, Yahoo, Gin Rummy, Solitaire</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Deck-Building ;Fantasy;Horror;Memory;Luck;Party ;Strategy;Social Deduction/Hidden Role;Sports;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Trivia;Heavy/Immersive Theming;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, skip-Bo, D&amp;D, azul, ticket to ride, Egyptian rat screw, speed, bs, scattegories, war, euchre, the oregon trail, cards against humanity, rummikub, yahoo, gin rummy, solitaire, clue, monopoly</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Cooperative ;Farming;Luck;Memory;Party ;Puzzle;Roll and Move ;Role-Playing ;Sports;Strategy;Tile-Laying ;Racing;Trains;Trivia;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Memory;Role-Playing ;Social Deduction/Hidden Role;Travel;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Communication Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clue, Nerts, Catan, Pitch, Gin Rummy</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card Drafting;Card;Civilization;Deck-Building ;Deduction;Memory;Party ;Puzzle;Roll and Move ;Role-Playing ;Social Deduction/Hidden Role;Territory Building;Strategy;Trains;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Pagan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dance</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Trial by Trolley, Settlers of Catan, Monopoly </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Fantasy;Luck;Memory;Roll and Move ;Role-Playing ;Social Deduction/Hidden Role;Strategy;Territory Building;Trivia;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Narrative and Folklore Studies (fairhaven Major) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card games (regular deck), settlers of catan, manchala, rummikub, banana grams, carcissone</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Multiracial;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Psychology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Yugioh”,“Three Dragon Ante“, “Exploding Kittens”, “Call of Cthulhu”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Deck-Building ;Abstract Strategy;Adventure;Fantasy;Fighting;Horror;Luck;Role-Playing ;Social Deduction/Hidden Role;Word ;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Anthropology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Conflict/Competition;Trivia;Party/Low-Stakes;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Civilization;Cooperative ;Deduction;Exploration;Fantasy;Fighting;Horror;Luck;Medieval;Memory;Party ;Puzzle;Racing;Roll and Move ;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Trivia;Luck;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Trivia;Word ;Territory Building;Strategy;Role-Playing ;Roll and Move ;Puzzle;Party ;Cooperative ;Civilization;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Hinduism</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">pre med and psychology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">uno, sorry, monopoly, candy land, chess, checkers</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Auction;Card Drafting;Card;Fantasy;Memory;Medieval;Party ;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Trivia;World War II;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Biology</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dutch blitz, uno, pictionary</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Party ;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">36</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Scrabble</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Education and Public Relations</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Cooperation;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clue, monopoly, Catan, ticket to ride, uno, cribbage, rummy Q, phase 10, trouble</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Adventure;Deduction;Deck-Building ;Civilization;Exploration;Memory;Puzzle;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Luck;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, Uno, Scrabble, Sorry, Clue</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Fantasy;Roll and Move ;Strategy;Territory Building;Trivia;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Economics/Mathematics</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Party/Low-Stakes;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Card;Economic;Educational;Fantasy;Medieval;Luck;Party ;Puzzle;Role-Playing ;Social Deduction/Hidden Role;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Codenames, Ultimate Werewolf, Catan, Ticket to Ride, Timeline, Coup, Pandemic</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Deck-Building ;Fantasy;Horror;Fighting;Luck;Medieval;Roll and Move ;Role-Playing ;Science Fiction;Civilization;Territory Building;Tile-Laying ;Zombies;Trains;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1 phase 10 game 2 candy land game 3 buzzed game 4 cards against humanity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Luck;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Communications</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party/Low-Stakes;Luck;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Civilization;Cooperative ;Fantasy;Farming;Fighting;Horror;Luck;Party ;Strategy;Territory Building;War ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Computer science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sorry, Uno, skipbo, cantan, magic the gathering, monopoly, great dalmoody, chess.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Civilization;Deck-Building ;Cooperative ;Fantasy;Fighting;Luck;Medieval;Memory;Miniatures;Party ;Puzzle;Role-Playing ;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Luck;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Munchkin, Cards against humanity, Inscryption, never have I ever, monopoly </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Abstract Strategy;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Economic;Educational;Exploration;Fantasy;Farming;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Transportation;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Art Studio (BA), Art History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Conflict/Competition;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: Apples to Apples, Game 2: Uno, Game 3: Battleship, Game 4: Mancala, Game 5: Guess Who?, Game 6: Cards Against Humanity</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Fantasy;Exploration;Animals;Fighting;Horror;Medieval;Memory;Party ;Pirates;Puzzle;Roll and Move ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;Worker Placement;Word ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Elementary Education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Archaeology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Backgammon, Uno, Sorry, Village Idiot, Garbage, monopoly, Coup</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Exploration;Luck;Memory;Party ;Pirates;Racing;Sports;War ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marine science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, uno, war, trivial pursuit, ticket to ride, risk, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Exploration;Abstract Strategy;Memory;Puzzle;Social Deduction/Hidden Role;Strategy;Territory Building;Trivia;Civilization;Card;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Theatre/education</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Puzzle-Solving;Heavy/Immersive Theming;Conflict/Competition;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Deduction;Exploration;Fantasy;Horror;Medieval;Miniatures;Puzzle;Roll and Move ;Role-Playing ;Social Deduction/Hidden Role;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marketing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Risk, Monopoly, Sorry, Stratego, Chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;War ;Roll and Move ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Social Deduction/Hidden Role;Cooperation;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Everdell, Ticket to Ride, Carcassone, Codenames, Cribbage, Telestrations, Red Flags, Sushi Go!, Abandon All Artichokes</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Animals;Card;Deck-Building ;Cooperative ;Civilization;Deduction;Fantasy;Farming;Party ;Puzzle;Strategy;Trains;Transportation;Worker Placement;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Political Science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, monopoly, secret hitler, surfs and kings</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Party ;Political;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Talisman, Telestrations, Blank Slate, Quixx, Cards Against Humanity, Catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Card;Civilization;Deck-Building ;Cooperative ;Educational;Economic;Exploration;Fantasy;Farming;Medieval;Memory;Party ;Puzzle;Roll and Move ;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trivia;War ;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental science </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Spit, sorry, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Luck;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Ticket to Ride, Catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Cooperative ;Educational;Exploration;Fantasy;Horror;Science Fiction;Role-Playing ;Sports;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, Ticket to Ride, Codenames, Clue, Dungeons &amp; Dragons</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Civilization;Card;Cooperative ;Deduction;Economic;Exploration;Fantasy;Farming;Horror;Medieval;Miniatures;Party ;Pirates;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, catan, risk, mow, Yahtzee, monopoly, and slapjack</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Deduction;Deck-Building ;Educational;Exploration;Fantasy;Farming;Fighting;Medieval;Memory;Pirates;Puzzle;Roll and Move ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Business and sustainability </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Stratego, monopoly, sorry, life</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Card Drafting;Cooperative ;Deck-Building ;Strategy;Territory Building;Tile-Laying ;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, spoons, clue, apples to apples, cards against humanity, chess</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Deck-Building ;Cooperative ;Luck;Memory;Racing;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">White;Native American or American Indian;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, uno, connect 4, colorfle, </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Animals;Fantasy;Farming;Puzzle;Strategy;Territory Building;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Black or African American;Hispanic or Latino;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Biochemistry</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Uno”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Animals;Fantasy;Memory;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">One day a week babysitting</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental Studies: Eco-Social Justice and Education Emphasis</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Skyjo, Phase 10, Skipbo, Sorry, Dutch Blitz, Clue, Trouble, Scatergories, Sequence, Battleship, Farkle, Scrawl, Charades, Solitaire</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card Drafting;Card;Cooperative ;Deduction;Memory;Party ;Puzzle;Roll and Move ;Racing;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Lutheran</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Animals;Adventure;Card;Educational;Fantasy;Farming;Fighting;Memory;Puzzle;Roll and Move ;Sports;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">game 1: stardew valley the board game game 2: uno game 3: dragon tea time</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Animals;Card;Fantasy;Farming;Fighting;Memory;Puzzle;Role-Playing ;Strategy;Exploration;Cooperative ;Adventure;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Puzzle-Solving;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Clue", "Codenames", "Mousetrap"</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fantasy;Medieval;Role-Playing ;Social Deduction/Hidden Role;Puzzle;Deduction;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Education</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Poker, hearts, skattegories </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card Drafting;Card;Deck-Building ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environmental Studies </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Trivia;Puzzle-Solving;Strategy;Conflict/Competition;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, Uno, Cards Against Humanity </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Civilization;Cooperative ;Deck-Building ;Deduction;Educational;Exploration;Fantasy;Fighting;Farming;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Sports;Zombies;World War II;Worker Placement;War ;Travel;Trivia;Transportation;Trains;Tile-Laying ;Territory Building;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ENVS </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Social Deduction/Hidden Role;Trivia;Party/Low-Stakes;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card Drafting;Card;Civilization;Deck-Building ;Deduction;Educational;Fantasy;Farming;Pirates;Party ;Role-Playing ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mathematics Secondary Education</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Strategy;Puzzle-Solving;Party/Low-Stakes;Trivia;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Uno”, “Sorry”, “Connect 4”, “Candy Land”, “Pictionary”, “BS”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Cooperative ;Educational;Memory;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Toaism</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Music Composition</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Monopoly”, “Munchkins”, “BS”, “Risk”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Civilization;Party ;Social Deduction/Hidden Role;Territory Building;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Chess, sudoku, solitaire, drinking games, wordle, connections</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Deduction;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sociology </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clue, Egyptian Rat Slap, BS</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Luck;Horror;Memory;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Luck;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Deck-Building ;Educational;Exploration;Farming;Fighting;Luck;Memory;Party ;Puzzle;Trivia;War ;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Coup, Settlers of Catan, Cards Against Humanity </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperative ;Abstract Strategy;Card;Deck-Building ;Party ;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Islam</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Stem</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Cooperation;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Risk. Ticket to ride. Monopoly </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Auction;Card Drafting;Card;Civilization;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Linguistics </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cribbage</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fairhaven</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Civilization;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fairhaven </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Social Deduction/Hidden Role;Heavy/Immersive Theming;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, chess, rummikube, solitaire, backgammon, poker, blackjack</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Deduction;Exploration;Fantasy;Fighting;Medieval;Puzzle;Role-Playing ;Social Deduction/Hidden Role;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1586,8 +2348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V114" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:V114"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V193" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:V193"/>
   <x:tableColumns count="22">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -9149,11 +9911,4995 @@
         <x:v>36</x:v>
       </x:c>
     </x:row>
+    <x:row r="115" hidden="0">
+      <x:c r="A115">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B115" s="2">
+        <x:v>45249.0856597222</x:v>
+      </x:c>
+      <x:c r="C115" s="2">
+        <x:v>45249.0878356481</x:v>
+      </x:c>
+      <x:c r="D115" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E115" s="10" t="s"/>
+      <x:c r="F115" s="2"/>
+      <x:c r="G115" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H115" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I115" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J115" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K115" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L115" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M115" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N115" s="10" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="O115" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P115" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q115" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R115" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S115" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T115" s="10" t="s"/>
+      <x:c r="U115">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V115" s="10" t="s">
+        <x:v>485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" hidden="0">
+      <x:c r="A116">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B116" s="2">
+        <x:v>45250.5770717593</x:v>
+      </x:c>
+      <x:c r="C116" s="2">
+        <x:v>45250.5797569444</x:v>
+      </x:c>
+      <x:c r="D116" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E116" s="10" t="s"/>
+      <x:c r="F116" s="2"/>
+      <x:c r="G116" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H116" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I116" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J116" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K116" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L116" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M116" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N116" s="10" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="O116" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P116" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q116" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R116" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S116" s="10" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="T116" s="10" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="U116">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V116" s="10" t="s">
+        <x:v>489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" hidden="0">
+      <x:c r="A117">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B117" s="2">
+        <x:v>45251.5499074074</x:v>
+      </x:c>
+      <x:c r="C117" s="2">
+        <x:v>45251.5521875</x:v>
+      </x:c>
+      <x:c r="D117" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E117" s="10" t="s"/>
+      <x:c r="F117" s="2"/>
+      <x:c r="G117" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H117" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I117" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J117" s="10" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="K117" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L117" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M117" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N117" s="10" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="O117" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P117" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q117" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R117" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S117" s="10" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="T117" s="10" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="U117">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V117" s="10" t="s">
+        <x:v>493</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" hidden="0">
+      <x:c r="A118">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B118" s="2">
+        <x:v>45251.591400463</x:v>
+      </x:c>
+      <x:c r="C118" s="2">
+        <x:v>45251.5935532407</x:v>
+      </x:c>
+      <x:c r="D118" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E118" s="10" t="s"/>
+      <x:c r="F118" s="2"/>
+      <x:c r="G118" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H118" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I118" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J118" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K118" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L118" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M118" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N118" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O118" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P118" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q118" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R118" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S118" s="10" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="T118" s="10" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="U118">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V118" s="10" t="s"/>
+    </x:row>
+    <x:row r="119" hidden="0">
+      <x:c r="A119">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B119" s="2">
+        <x:v>45251.5851388889</x:v>
+      </x:c>
+      <x:c r="C119" s="2">
+        <x:v>45251.5954166667</x:v>
+      </x:c>
+      <x:c r="D119" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E119" s="10" t="s"/>
+      <x:c r="F119" s="2"/>
+      <x:c r="G119" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H119" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I119" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J119" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K119" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L119" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M119" s="10" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="N119" s="10" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="O119" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P119" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q119" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R119" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S119" s="10" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="T119" s="10" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="U119">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V119" s="10" t="s">
+        <x:v>499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" hidden="0">
+      <x:c r="A120">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B120" s="2">
+        <x:v>45259.5596412037</x:v>
+      </x:c>
+      <x:c r="C120" s="2">
+        <x:v>45259.560787037</x:v>
+      </x:c>
+      <x:c r="D120" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E120" s="10" t="s"/>
+      <x:c r="F120" s="2"/>
+      <x:c r="G120" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H120" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I120" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J120" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K120" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L120" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M120" s="10" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="N120" s="10" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="O120" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P120" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q120" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R120" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="S120" s="10" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="T120" s="10" t="s"/>
+      <x:c r="U120">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V120" s="10" t="s"/>
+    </x:row>
+    <x:row r="121" hidden="0">
+      <x:c r="A121">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B121" s="2">
+        <x:v>45259.6613078704</x:v>
+      </x:c>
+      <x:c r="C121" s="2">
+        <x:v>45259.6677893519</x:v>
+      </x:c>
+      <x:c r="D121" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E121" s="10" t="s"/>
+      <x:c r="F121" s="2"/>
+      <x:c r="G121" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H121" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I121" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J121" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K121" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L121" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M121" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N121" s="10" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="O121" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P121" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q121" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R121" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S121" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="T121" s="10" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="U121">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V121" s="10" t="s">
+        <x:v>505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" hidden="0">
+      <x:c r="A122">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B122" s="2">
+        <x:v>45259.6680208333</x:v>
+      </x:c>
+      <x:c r="C122" s="2">
+        <x:v>45259.6695601852</x:v>
+      </x:c>
+      <x:c r="D122" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E122" s="10" t="s"/>
+      <x:c r="F122" s="2"/>
+      <x:c r="G122" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H122" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I122" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J122" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K122" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L122" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M122" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N122" s="10" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="O122" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P122" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q122" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R122" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S122" s="10" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="T122" s="10" t="s"/>
+      <x:c r="U122">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V122" s="10" t="s">
+        <x:v>508</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" hidden="0">
+      <x:c r="A123">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B123" s="2">
+        <x:v>45259.670462963</x:v>
+      </x:c>
+      <x:c r="C123" s="2">
+        <x:v>45259.6713657407</x:v>
+      </x:c>
+      <x:c r="D123" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E123" s="10" t="s"/>
+      <x:c r="F123" s="2"/>
+      <x:c r="G123" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H123" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I123" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J123" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K123" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L123" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M123" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N123" s="10" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="O123" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P123" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q123" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R123" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S123" s="10" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="T123" s="10" t="s"/>
+      <x:c r="U123">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V123" s="10" t="s">
+        <x:v>510</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" hidden="0">
+      <x:c r="A124">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B124" s="2">
+        <x:v>45259.6698032407</x:v>
+      </x:c>
+      <x:c r="C124" s="2">
+        <x:v>45259.6716666667</x:v>
+      </x:c>
+      <x:c r="D124" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E124" s="10" t="s"/>
+      <x:c r="F124" s="2"/>
+      <x:c r="G124" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H124" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I124" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J124" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K124" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L124" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M124" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N124" s="10" t="s"/>
+      <x:c r="O124" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P124" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q124" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R124" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S124" s="10" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="T124" s="10" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="U124">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V124" s="10" t="s">
+        <x:v>513</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" hidden="0">
+      <x:c r="A125">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B125" s="2">
+        <x:v>45259.6746296296</x:v>
+      </x:c>
+      <x:c r="C125" s="2">
+        <x:v>45259.6766666667</x:v>
+      </x:c>
+      <x:c r="D125" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E125" s="10" t="s"/>
+      <x:c r="F125" s="2"/>
+      <x:c r="G125" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H125" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I125" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J125" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K125" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L125" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M125" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N125" s="10" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="O125" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P125" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q125" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R125" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S125" s="10" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="T125" s="10" t="s"/>
+      <x:c r="U125">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V125" s="10" t="s">
+        <x:v>516</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" hidden="0">
+      <x:c r="A126">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B126" s="2">
+        <x:v>45259.6715625</x:v>
+      </x:c>
+      <x:c r="C126" s="2">
+        <x:v>45259.6768865741</x:v>
+      </x:c>
+      <x:c r="D126" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E126" s="10" t="s"/>
+      <x:c r="F126" s="2"/>
+      <x:c r="G126" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H126" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I126" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J126" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K126" s="10" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="L126" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M126" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N126" s="10" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="O126" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P126" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q126" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="R126" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S126" s="10" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="T126" s="10" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="U126">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V126" s="10" t="s">
+        <x:v>521</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" hidden="0">
+      <x:c r="A127">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B127" s="2">
+        <x:v>45259.6786921296</x:v>
+      </x:c>
+      <x:c r="C127" s="2">
+        <x:v>45259.6822106481</x:v>
+      </x:c>
+      <x:c r="D127" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E127" s="10" t="s"/>
+      <x:c r="F127" s="2"/>
+      <x:c r="G127" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H127" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I127" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J127" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K127" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L127" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M127" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N127" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="O127" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P127" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q127" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R127" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S127" s="10" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="T127" s="10" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="U127">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V127" s="10" t="s">
+        <x:v>524</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" hidden="0">
+      <x:c r="A128">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B128" s="2">
+        <x:v>45259.681724537</x:v>
+      </x:c>
+      <x:c r="C128" s="2">
+        <x:v>45259.6934375</x:v>
+      </x:c>
+      <x:c r="D128" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E128" s="10" t="s"/>
+      <x:c r="F128" s="2"/>
+      <x:c r="G128" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H128" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I128" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J128" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K128" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L128" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M128" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N128" s="10" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="O128" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P128" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q128" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R128" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S128" s="10" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="T128" s="10" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="U128">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V128" s="10" t="s">
+        <x:v>527</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" hidden="0">
+      <x:c r="A129">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B129" s="2">
+        <x:v>45259.7208912037</x:v>
+      </x:c>
+      <x:c r="C129" s="2">
+        <x:v>45259.7224884259</x:v>
+      </x:c>
+      <x:c r="D129" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E129" s="10" t="s"/>
+      <x:c r="F129" s="2"/>
+      <x:c r="G129" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H129" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I129" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J129" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K129" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L129" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M129" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N129" s="10" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="O129" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P129" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q129" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R129" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S129" s="10" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="T129" s="10" t="s"/>
+      <x:c r="U129">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V129" s="10" t="s">
+        <x:v>530</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" hidden="0">
+      <x:c r="A130">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B130" s="2">
+        <x:v>45259.7177546296</x:v>
+      </x:c>
+      <x:c r="C130" s="2">
+        <x:v>45259.7231944444</x:v>
+      </x:c>
+      <x:c r="D130" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E130" s="10" t="s"/>
+      <x:c r="F130" s="2"/>
+      <x:c r="G130" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H130" s="10" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="I130" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J130" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K130" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L130" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M130" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N130" s="10" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="O130" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P130" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q130" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R130" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S130" s="10" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="T130" s="10" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="U130">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V130" s="10" t="s">
+        <x:v>534</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" hidden="0">
+      <x:c r="A131">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B131" s="2">
+        <x:v>45259.7209722222</x:v>
+      </x:c>
+      <x:c r="C131" s="2">
+        <x:v>45259.7245949074</x:v>
+      </x:c>
+      <x:c r="D131" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E131" s="10" t="s"/>
+      <x:c r="F131" s="2"/>
+      <x:c r="G131" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H131" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I131" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J131" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K131" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L131" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="M131" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N131" s="10" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="O131" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P131" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q131" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R131" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S131" s="10" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="T131" s="10" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="U131">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V131" s="10" t="s">
+        <x:v>538</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" hidden="0">
+      <x:c r="A132">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B132" s="2">
+        <x:v>45259.7871990741</x:v>
+      </x:c>
+      <x:c r="C132" s="2">
+        <x:v>45259.7919675926</x:v>
+      </x:c>
+      <x:c r="D132" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E132" s="10" t="s"/>
+      <x:c r="F132" s="2"/>
+      <x:c r="G132" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H132" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I132" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J132" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K132" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L132" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M132" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N132" s="10" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="O132" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P132" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q132" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R132" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S132" s="10" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="T132" s="10" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="U132">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V132" s="10" t="s">
+        <x:v>542</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" hidden="0">
+      <x:c r="A133">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B133" s="2">
+        <x:v>45259.9327430556</x:v>
+      </x:c>
+      <x:c r="C133" s="2">
+        <x:v>45259.935474537</x:v>
+      </x:c>
+      <x:c r="D133" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E133" s="10" t="s"/>
+      <x:c r="F133" s="2"/>
+      <x:c r="G133" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H133" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I133" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J133" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K133" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L133" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M133" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N133" s="10" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="O133" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P133" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q133" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="R133" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S133" s="10" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="T133" s="10" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="U133">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V133" s="10" t="s">
+        <x:v>545</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" hidden="0">
+      <x:c r="A134">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B134" s="2">
+        <x:v>45260.0332291667</x:v>
+      </x:c>
+      <x:c r="C134" s="2">
+        <x:v>45260.0407986111</x:v>
+      </x:c>
+      <x:c r="D134" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E134" s="10" t="s"/>
+      <x:c r="F134" s="2"/>
+      <x:c r="G134" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H134" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I134" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J134" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K134" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="L134" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M134" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N134" s="10" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="O134" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P134" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q134" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R134" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S134" s="10" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="T134" s="10" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="U134">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V134" s="10" t="s">
+        <x:v>549</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" hidden="0">
+      <x:c r="A135">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B135" s="2">
+        <x:v>45260.5182060185</x:v>
+      </x:c>
+      <x:c r="C135" s="2">
+        <x:v>45260.5218402778</x:v>
+      </x:c>
+      <x:c r="D135" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E135" s="10" t="s"/>
+      <x:c r="F135" s="2"/>
+      <x:c r="G135" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H135" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I135" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J135" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K135" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L135" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M135" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N135" s="10" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="O135" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P135" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q135" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R135" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S135" s="10" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="T135" s="10" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="U135">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="V135" s="10" t="s">
+        <x:v>553</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" hidden="0">
+      <x:c r="A136">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B136" s="2">
+        <x:v>45260.5262615741</x:v>
+      </x:c>
+      <x:c r="C136" s="2">
+        <x:v>45260.5269560185</x:v>
+      </x:c>
+      <x:c r="D136" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E136" s="10" t="s"/>
+      <x:c r="F136" s="2"/>
+      <x:c r="G136" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H136" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I136" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J136" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K136" s="10" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="L136" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M136" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N136" s="10" t="s"/>
+      <x:c r="O136" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P136" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q136" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R136" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S136" s="10" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="T136" s="10" t="s"/>
+      <x:c r="U136">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V136" s="10" t="s">
+        <x:v>556</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" hidden="0">
+      <x:c r="A137">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B137" s="2">
+        <x:v>45260.527662037</x:v>
+      </x:c>
+      <x:c r="C137" s="2">
+        <x:v>45260.5296990741</x:v>
+      </x:c>
+      <x:c r="D137" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E137" s="10" t="s"/>
+      <x:c r="F137" s="2"/>
+      <x:c r="G137" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H137" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I137" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J137" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K137" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L137" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M137" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N137" s="10" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="O137" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P137" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q137" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R137" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S137" s="10" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="T137" s="10" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="U137">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V137" s="10" t="s">
+        <x:v>559</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" hidden="0">
+      <x:c r="A138">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B138" s="2">
+        <x:v>45260.5274537037</x:v>
+      </x:c>
+      <x:c r="C138" s="2">
+        <x:v>45260.5321643518</x:v>
+      </x:c>
+      <x:c r="D138" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E138" s="10" t="s"/>
+      <x:c r="F138" s="2"/>
+      <x:c r="G138" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H138" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I138" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J138" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K138" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L138" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M138" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N138" s="10" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="O138" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P138" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q138" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R138" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S138" s="10" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="T138" s="10" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="U138">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V138" s="10" t="s">
+        <x:v>563</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" hidden="0">
+      <x:c r="A139">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B139" s="2">
+        <x:v>45260.5275925926</x:v>
+      </x:c>
+      <x:c r="C139" s="2">
+        <x:v>45260.5328819444</x:v>
+      </x:c>
+      <x:c r="D139" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E139" s="10" t="s"/>
+      <x:c r="F139" s="2"/>
+      <x:c r="G139" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H139" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I139" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J139" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K139" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L139" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M139" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N139" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O139" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P139" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q139" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R139" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S139" s="10" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="T139" s="10" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="U139">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V139" s="10" t="s">
+        <x:v>566</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" hidden="0">
+      <x:c r="A140">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B140" s="2">
+        <x:v>45260.534525463</x:v>
+      </x:c>
+      <x:c r="C140" s="2">
+        <x:v>45260.5366319444</x:v>
+      </x:c>
+      <x:c r="D140" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E140" s="10" t="s"/>
+      <x:c r="F140" s="2"/>
+      <x:c r="G140" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H140" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I140" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J140" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K140" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L140" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M140" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N140" s="10" t="s"/>
+      <x:c r="O140" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P140" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q140" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R140" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S140" s="10" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="T140" s="10" t="s"/>
+      <x:c r="U140">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V140" s="10" t="s">
+        <x:v>568</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" hidden="0">
+      <x:c r="A141">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B141" s="2">
+        <x:v>45260.5354976852</x:v>
+      </x:c>
+      <x:c r="C141" s="2">
+        <x:v>45260.5401736111</x:v>
+      </x:c>
+      <x:c r="D141" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E141" s="10" t="s"/>
+      <x:c r="F141" s="2"/>
+      <x:c r="G141" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H141" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I141" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J141" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K141" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L141" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M141" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N141" s="10" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="O141" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P141" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q141" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R141" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S141" s="10" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="T141" s="10" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="U141">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V141" s="10" t="s">
+        <x:v>571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" hidden="0">
+      <x:c r="A142">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B142" s="2">
+        <x:v>45260.5422222222</x:v>
+      </x:c>
+      <x:c r="C142" s="2">
+        <x:v>45260.5462152778</x:v>
+      </x:c>
+      <x:c r="D142" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E142" s="10" t="s"/>
+      <x:c r="F142" s="2"/>
+      <x:c r="G142" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H142" s="10" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="I142" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J142" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K142" s="10" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="L142" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M142" s="10" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="N142" s="10" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="O142" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P142" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q142" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R142" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S142" s="10" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="T142" s="10" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="U142">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V142" s="10" t="s">
+        <x:v>576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" hidden="0">
+      <x:c r="A143">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B143" s="2">
+        <x:v>45260.5458217593</x:v>
+      </x:c>
+      <x:c r="C143" s="2">
+        <x:v>45260.5496759259</x:v>
+      </x:c>
+      <x:c r="D143" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E143" s="10" t="s"/>
+      <x:c r="F143" s="2"/>
+      <x:c r="G143" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H143" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I143" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J143" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K143" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L143" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M143" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N143" s="10" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="O143" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P143" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q143" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R143" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S143" s="10" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="T143" s="10" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="U143">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V143" s="10" t="s"/>
+    </x:row>
+    <x:row r="144" hidden="0">
+      <x:c r="A144">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B144" s="2">
+        <x:v>45260.5454050926</x:v>
+      </x:c>
+      <x:c r="C144" s="2">
+        <x:v>45260.5522800926</x:v>
+      </x:c>
+      <x:c r="D144" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E144" s="10" t="s"/>
+      <x:c r="F144" s="2"/>
+      <x:c r="G144" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H144" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I144" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J144" s="10" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="K144" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L144" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M144" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N144" s="10" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="O144" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P144" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q144" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R144" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S144" s="10" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="T144" s="10" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="U144">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V144" s="10" t="s">
+        <x:v>584</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" hidden="0">
+      <x:c r="A145">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B145" s="2">
+        <x:v>45260.552962963</x:v>
+      </x:c>
+      <x:c r="C145" s="2">
+        <x:v>45260.554212963</x:v>
+      </x:c>
+      <x:c r="D145" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E145" s="10" t="s"/>
+      <x:c r="F145" s="2"/>
+      <x:c r="G145" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H145" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I145" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J145" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K145" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L145" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M145" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N145" s="10" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="O145" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P145" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q145" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R145" s="10" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S145" s="10" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="T145" s="10" t="s"/>
+      <x:c r="U145">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V145" s="10" t="s"/>
+    </x:row>
+    <x:row r="146" hidden="0">
+      <x:c r="A146">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B146" s="2">
+        <x:v>45260.5516435185</x:v>
+      </x:c>
+      <x:c r="C146" s="2">
+        <x:v>45260.5543865741</x:v>
+      </x:c>
+      <x:c r="D146" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E146" s="10" t="s"/>
+      <x:c r="F146" s="2"/>
+      <x:c r="G146" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H146" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I146" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J146" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K146" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L146" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M146" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N146" s="10" t="s"/>
+      <x:c r="O146" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P146" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q146" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R146" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S146" s="10" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="T146" s="10" t="s"/>
+      <x:c r="U146">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V146" s="10" t="s">
+        <x:v>588</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" hidden="0">
+      <x:c r="A147">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B147" s="2">
+        <x:v>45260.5530208333</x:v>
+      </x:c>
+      <x:c r="C147" s="2">
+        <x:v>45260.5560185185</x:v>
+      </x:c>
+      <x:c r="D147" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E147" s="10" t="s"/>
+      <x:c r="F147" s="2"/>
+      <x:c r="G147" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H147" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I147" s="10" t="s"/>
+      <x:c r="J147" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K147" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L147" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M147" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N147" s="10" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="O147" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P147" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q147" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R147" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S147" s="10" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="T147" s="10" t="s"/>
+      <x:c r="U147">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V147" s="10" t="s">
+        <x:v>590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" hidden="0">
+      <x:c r="A148">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B148" s="2">
+        <x:v>45260.5560185185</x:v>
+      </x:c>
+      <x:c r="C148" s="2">
+        <x:v>45260.5638194444</x:v>
+      </x:c>
+      <x:c r="D148" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E148" s="10" t="s"/>
+      <x:c r="F148" s="2"/>
+      <x:c r="G148" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H148" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I148" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J148" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K148" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L148" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M148" s="10" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="N148" s="10" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="O148" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P148" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q148" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R148" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S148" s="10" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="T148" s="10" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="U148">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V148" s="10" t="s">
+        <x:v>595</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" hidden="0">
+      <x:c r="A149">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B149" s="2">
+        <x:v>45260.5624074074</x:v>
+      </x:c>
+      <x:c r="C149" s="2">
+        <x:v>45260.5641435185</x:v>
+      </x:c>
+      <x:c r="D149" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E149" s="10" t="s"/>
+      <x:c r="F149" s="2"/>
+      <x:c r="G149" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H149" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I149" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J149" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K149" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L149" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M149" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N149" s="10" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="O149" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P149" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q149" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R149" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S149" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T149" s="10" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="U149">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V149" s="10" t="s">
+        <x:v>598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" hidden="0">
+      <x:c r="A150">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B150" s="2">
+        <x:v>45260.5633217593</x:v>
+      </x:c>
+      <x:c r="C150" s="2">
+        <x:v>45260.5645138889</x:v>
+      </x:c>
+      <x:c r="D150" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E150" s="10" t="s"/>
+      <x:c r="F150" s="2"/>
+      <x:c r="G150" s="10" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="H150" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I150" s="7" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="J150" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K150" s="10" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="L150" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M150" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N150" s="10" t="s"/>
+      <x:c r="O150" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P150" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q150" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R150" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S150" s="10" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="T150" s="10" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="U150">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V150" s="10" t="s">
+        <x:v>471</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" hidden="0">
+      <x:c r="A151">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B151" s="2">
+        <x:v>45260.563287037</x:v>
+      </x:c>
+      <x:c r="C151" s="2">
+        <x:v>45260.5653240741</x:v>
+      </x:c>
+      <x:c r="D151" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E151" s="10" t="s"/>
+      <x:c r="F151" s="2"/>
+      <x:c r="G151" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H151" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I151" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J151" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K151" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L151" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M151" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N151" s="10" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="O151" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P151" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q151" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R151" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S151" s="10" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="T151" s="10" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="U151">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V151" s="10" t="s">
+        <x:v>605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" hidden="0">
+      <x:c r="A152">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B152" s="2">
+        <x:v>45260.5636805556</x:v>
+      </x:c>
+      <x:c r="C152" s="2">
+        <x:v>45260.5659143519</x:v>
+      </x:c>
+      <x:c r="D152" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E152" s="10" t="s"/>
+      <x:c r="F152" s="2"/>
+      <x:c r="G152" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H152" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I152" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J152" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K152" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L152" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M152" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N152" s="10" t="s"/>
+      <x:c r="O152" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P152" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q152" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R152" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S152" s="10" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="T152" s="10" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="U152">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V152" s="10" t="s">
+        <x:v>608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" hidden="0">
+      <x:c r="A153">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B153" s="2">
+        <x:v>45260.5635185185</x:v>
+      </x:c>
+      <x:c r="C153" s="2">
+        <x:v>45260.566400463</x:v>
+      </x:c>
+      <x:c r="D153" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E153" s="10" t="s"/>
+      <x:c r="F153" s="2"/>
+      <x:c r="G153" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H153" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I153" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J153" s="10" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="K153" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L153" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M153" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N153" s="10" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="O153" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P153" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q153" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R153" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S153" s="10" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="T153" s="10" t="s"/>
+      <x:c r="U153">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V153" s="10" t="s">
+        <x:v>611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" hidden="0">
+      <x:c r="A154">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B154" s="2">
+        <x:v>45260.5632175926</x:v>
+      </x:c>
+      <x:c r="C154" s="2">
+        <x:v>45260.566712963</x:v>
+      </x:c>
+      <x:c r="D154" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E154" s="10" t="s"/>
+      <x:c r="F154" s="2"/>
+      <x:c r="G154" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H154" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I154" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J154" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K154" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L154" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M154" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N154" s="10" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="O154" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P154" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q154" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R154" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S154" s="10" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="T154" s="10" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="U154">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V154" s="10" t="s">
+        <x:v>614</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155" hidden="0">
+      <x:c r="A155">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B155" s="2">
+        <x:v>45260.5661458333</x:v>
+      </x:c>
+      <x:c r="C155" s="2">
+        <x:v>45260.5677083333</x:v>
+      </x:c>
+      <x:c r="D155" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E155" s="10" t="s"/>
+      <x:c r="F155" s="2"/>
+      <x:c r="G155" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H155" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I155" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J155" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K155" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L155" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M155" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N155" s="10" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="O155" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P155" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q155" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R155" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S155" s="10" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="T155" s="10" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="U155">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V155" s="10" t="s">
+        <x:v>617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156" hidden="0">
+      <x:c r="A156">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B156" s="2">
+        <x:v>45260.5675115741</x:v>
+      </x:c>
+      <x:c r="C156" s="2">
+        <x:v>45260.5689930556</x:v>
+      </x:c>
+      <x:c r="D156" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E156" s="10" t="s"/>
+      <x:c r="F156" s="2"/>
+      <x:c r="G156" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H156" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I156" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J156" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K156" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L156" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M156" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N156" s="10" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="O156" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P156" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q156" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R156" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S156" s="10" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="T156" s="10" t="s"/>
+      <x:c r="U156">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V156" s="10" t="s">
+        <x:v>620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" hidden="0">
+      <x:c r="A157">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B157" s="2">
+        <x:v>45260.5668287037</x:v>
+      </x:c>
+      <x:c r="C157" s="2">
+        <x:v>45260.5704513889</x:v>
+      </x:c>
+      <x:c r="D157" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E157" s="10" t="s"/>
+      <x:c r="F157" s="2"/>
+      <x:c r="G157" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H157" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I157" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J157" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K157" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L157" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M157" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N157" s="10" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="O157" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P157" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q157" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R157" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S157" s="10" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="T157" s="10" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="U157">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V157" s="10" t="s">
+        <x:v>623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" hidden="0">
+      <x:c r="A158">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B158" s="2">
+        <x:v>45260.5684143519</x:v>
+      </x:c>
+      <x:c r="C158" s="2">
+        <x:v>45260.57125</x:v>
+      </x:c>
+      <x:c r="D158" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E158" s="10" t="s"/>
+      <x:c r="F158" s="2"/>
+      <x:c r="G158" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H158" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I158" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J158" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K158" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L158" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M158" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N158" s="10" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="O158" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P158" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q158" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R158" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S158" s="10" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="T158" s="10" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="U158">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V158" s="10" t="s">
+        <x:v>626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" hidden="0">
+      <x:c r="A159">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B159" s="2">
+        <x:v>45260.5672453704</x:v>
+      </x:c>
+      <x:c r="C159" s="2">
+        <x:v>45260.5733217593</x:v>
+      </x:c>
+      <x:c r="D159" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E159" s="10" t="s"/>
+      <x:c r="F159" s="2"/>
+      <x:c r="G159" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H159" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I159" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J159" s="10" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="K159" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L159" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M159" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N159" s="10" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="O159" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P159" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q159" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R159" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S159" s="10" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="T159" s="10" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="U159">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V159" s="10" t="s">
+        <x:v>630</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160" hidden="0">
+      <x:c r="A160">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B160" s="2">
+        <x:v>45260.5729050926</x:v>
+      </x:c>
+      <x:c r="C160" s="2">
+        <x:v>45260.5743402778</x:v>
+      </x:c>
+      <x:c r="D160" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E160" s="10" t="s"/>
+      <x:c r="F160" s="2"/>
+      <x:c r="G160" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H160" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I160" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J160" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="K160" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L160" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M160" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N160" s="10" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="O160" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P160" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q160" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R160" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S160" s="10" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="T160" s="10" t="s"/>
+      <x:c r="U160">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V160" s="10" t="s"/>
+    </x:row>
+    <x:row r="161" hidden="0">
+      <x:c r="A161">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B161" s="2">
+        <x:v>45260.5706018518</x:v>
+      </x:c>
+      <x:c r="C161" s="2">
+        <x:v>45260.5763888889</x:v>
+      </x:c>
+      <x:c r="D161" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E161" s="10" t="s"/>
+      <x:c r="F161" s="2"/>
+      <x:c r="G161" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H161" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I161" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J161" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K161" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L161" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M161" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N161" s="10" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="O161" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P161" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q161" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R161" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S161" s="10" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="T161" s="10" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="U161">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V161" s="10" t="s">
+        <x:v>634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" hidden="0">
+      <x:c r="A162">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B162" s="2">
+        <x:v>45260.5735300926</x:v>
+      </x:c>
+      <x:c r="C162" s="2">
+        <x:v>45260.5764236111</x:v>
+      </x:c>
+      <x:c r="D162" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E162" s="10" t="s"/>
+      <x:c r="F162" s="2"/>
+      <x:c r="G162" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H162" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I162" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J162" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K162" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L162" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M162" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N162" s="10" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="O162" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P162" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q162" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R162" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S162" s="10" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="T162" s="10" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="U162">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V162" s="10" t="s">
+        <x:v>638</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" hidden="0">
+      <x:c r="A163">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B163" s="2">
+        <x:v>45260.5751041667</x:v>
+      </x:c>
+      <x:c r="C163" s="2">
+        <x:v>45260.5770833333</x:v>
+      </x:c>
+      <x:c r="D163" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E163" s="10" t="s"/>
+      <x:c r="F163" s="2"/>
+      <x:c r="G163" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H163" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I163" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J163" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K163" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L163" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M163" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N163" s="10" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="O163" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P163" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q163" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R163" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S163" s="10" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="T163" s="10" t="s"/>
+      <x:c r="U163">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V163" s="10" t="s">
+        <x:v>641</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" hidden="0">
+      <x:c r="A164">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B164" s="2">
+        <x:v>45260.5746759259</x:v>
+      </x:c>
+      <x:c r="C164" s="2">
+        <x:v>45260.5771759259</x:v>
+      </x:c>
+      <x:c r="D164" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E164" s="10" t="s"/>
+      <x:c r="F164" s="2"/>
+      <x:c r="G164" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H164" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I164" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J164" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K164" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L164" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M164" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N164" s="10" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="O164" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P164" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q164" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R164" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S164" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T164" s="10" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="U164">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V164" s="10" t="s">
+        <x:v>644</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" hidden="0">
+      <x:c r="A165">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B165" s="2">
+        <x:v>45260.5712615741</x:v>
+      </x:c>
+      <x:c r="C165" s="2">
+        <x:v>45260.5778703704</x:v>
+      </x:c>
+      <x:c r="D165" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E165" s="10" t="s"/>
+      <x:c r="F165" s="2"/>
+      <x:c r="G165" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H165" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I165" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J165" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K165" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L165" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M165" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N165" s="10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="O165" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P165" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q165" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R165" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S165" s="10" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="T165" s="10" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="U165">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V165" s="10" t="s">
+        <x:v>647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" hidden="0">
+      <x:c r="A166">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B166" s="2">
+        <x:v>45260.5824421296</x:v>
+      </x:c>
+      <x:c r="C166" s="2">
+        <x:v>45260.5839814815</x:v>
+      </x:c>
+      <x:c r="D166" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E166" s="10" t="s"/>
+      <x:c r="F166" s="2"/>
+      <x:c r="G166" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H166" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I166" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J166" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K166" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L166" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M166" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N166" s="10" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="O166" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P166" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q166" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R166" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S166" s="10" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="T166" s="10" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="U166">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V166" s="10" t="s">
+        <x:v>651</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" hidden="0">
+      <x:c r="A167">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B167" s="2">
+        <x:v>45260.5823726852</x:v>
+      </x:c>
+      <x:c r="C167" s="2">
+        <x:v>45260.5844328704</x:v>
+      </x:c>
+      <x:c r="D167" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E167" s="10" t="s"/>
+      <x:c r="F167" s="2"/>
+      <x:c r="G167" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H167" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I167" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J167" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K167" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L167" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M167" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N167" s="10" t="s"/>
+      <x:c r="O167" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P167" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q167" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R167" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S167" s="10" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="T167" s="10" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="U167">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V167" s="10" t="s">
+        <x:v>654</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" hidden="0">
+      <x:c r="A168">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B168" s="2">
+        <x:v>45260.5840856481</x:v>
+      </x:c>
+      <x:c r="C168" s="2">
+        <x:v>45260.5854282407</x:v>
+      </x:c>
+      <x:c r="D168" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E168" s="10" t="s"/>
+      <x:c r="F168" s="2"/>
+      <x:c r="G168" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H168" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I168" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J168" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K168" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L168" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M168" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N168" s="10" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="O168" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P168" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q168" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R168" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S168" s="10" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="T168" s="10" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="U168">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V168" s="10" t="s"/>
+    </x:row>
+    <x:row r="169" hidden="0">
+      <x:c r="A169">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B169" s="2">
+        <x:v>45260.5843865741</x:v>
+      </x:c>
+      <x:c r="C169" s="2">
+        <x:v>45260.5867708333</x:v>
+      </x:c>
+      <x:c r="D169" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E169" s="10" t="s"/>
+      <x:c r="F169" s="2"/>
+      <x:c r="G169" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H169" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I169" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J169" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K169" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L169" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M169" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N169" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O169" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P169" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q169" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R169" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S169" s="10" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="T169" s="10" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="U169">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V169" s="10" t="s">
+        <x:v>660</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" hidden="0">
+      <x:c r="A170">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B170" s="2">
+        <x:v>45260.5834027778</x:v>
+      </x:c>
+      <x:c r="C170" s="2">
+        <x:v>45260.5869791667</x:v>
+      </x:c>
+      <x:c r="D170" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E170" s="10" t="s"/>
+      <x:c r="F170" s="2"/>
+      <x:c r="G170" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H170" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I170" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J170" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K170" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L170" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M170" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N170" s="10" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="O170" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P170" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q170" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R170" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S170" s="10" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="T170" s="10" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="U170">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V170" s="10" t="s">
+        <x:v>663</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" hidden="0">
+      <x:c r="A171">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B171" s="2">
+        <x:v>45260.5843055556</x:v>
+      </x:c>
+      <x:c r="C171" s="2">
+        <x:v>45260.5876388889</x:v>
+      </x:c>
+      <x:c r="D171" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E171" s="10" t="s"/>
+      <x:c r="F171" s="2"/>
+      <x:c r="G171" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H171" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I171" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J171" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K171" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L171" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M171" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N171" s="10" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="O171" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P171" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q171" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R171" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S171" s="10" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="T171" s="10" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="U171">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V171" s="10" t="s">
+        <x:v>666</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" hidden="0">
+      <x:c r="A172">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B172" s="2">
+        <x:v>45260.5866898148</x:v>
+      </x:c>
+      <x:c r="C172" s="2">
+        <x:v>45260.587974537</x:v>
+      </x:c>
+      <x:c r="D172" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E172" s="10" t="s"/>
+      <x:c r="F172" s="2"/>
+      <x:c r="G172" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H172" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I172" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J172" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K172" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L172" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M172" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N172" s="10" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="O172" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P172" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q172" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R172" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S172" s="10" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="T172" s="10" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="U172">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V172" s="10" t="s">
+        <x:v>670</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" hidden="0">
+      <x:c r="A173">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B173" s="2">
+        <x:v>45260.5865972222</x:v>
+      </x:c>
+      <x:c r="C173" s="2">
+        <x:v>45260.5895833333</x:v>
+      </x:c>
+      <x:c r="D173" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E173" s="10" t="s"/>
+      <x:c r="F173" s="2"/>
+      <x:c r="G173" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H173" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I173" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J173" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K173" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L173" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M173" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N173" s="10" t="s"/>
+      <x:c r="O173" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P173" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q173" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R173" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S173" s="10" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="T173" s="10" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="U173">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V173" s="10" t="s">
+        <x:v>673</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" hidden="0">
+      <x:c r="A174">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B174" s="2">
+        <x:v>45260.5880671296</x:v>
+      </x:c>
+      <x:c r="C174" s="2">
+        <x:v>45260.5900578704</x:v>
+      </x:c>
+      <x:c r="D174" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E174" s="10" t="s"/>
+      <x:c r="F174" s="2"/>
+      <x:c r="G174" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H174" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I174" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J174" s="10" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="K174" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L174" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M174" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N174" s="10" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="O174" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P174" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q174" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R174" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S174" s="10" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="T174" s="10" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="U174">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V174" s="10" t="s">
+        <x:v>677</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" hidden="0">
+      <x:c r="A175">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B175" s="2">
+        <x:v>45260.5865972222</x:v>
+      </x:c>
+      <x:c r="C175" s="2">
+        <x:v>45260.5902199074</x:v>
+      </x:c>
+      <x:c r="D175" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E175" s="10" t="s"/>
+      <x:c r="F175" s="2"/>
+      <x:c r="G175" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H175" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I175" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J175" s="10" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="K175" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L175" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M175" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N175" s="10" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="O175" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P175" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q175" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R175" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S175" s="10" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="T175" s="10" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="U175">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V175" s="10" t="s">
+        <x:v>681</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" hidden="0">
+      <x:c r="A176">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B176" s="2">
+        <x:v>45260.5862152778</x:v>
+      </x:c>
+      <x:c r="C176" s="2">
+        <x:v>45260.5902777778</x:v>
+      </x:c>
+      <x:c r="D176" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E176" s="10" t="s"/>
+      <x:c r="F176" s="2"/>
+      <x:c r="G176" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H176" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I176" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J176" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K176" s="10" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="L176" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M176" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N176" s="10" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="O176" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P176" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q176" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R176" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S176" s="10" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="T176" s="10" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="U176">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V176" s="10" t="s">
+        <x:v>685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" hidden="0">
+      <x:c r="A177">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B177" s="2">
+        <x:v>45260.5915393519</x:v>
+      </x:c>
+      <x:c r="C177" s="2">
+        <x:v>45260.5929513889</x:v>
+      </x:c>
+      <x:c r="D177" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E177" s="10" t="s"/>
+      <x:c r="F177" s="2"/>
+      <x:c r="G177" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H177" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I177" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J177" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K177" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L177" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M177" s="10" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="N177" s="10" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="O177" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P177" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q177" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R177" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S177" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="T177" s="10" t="s"/>
+      <x:c r="U177">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V177" s="10" t="s">
+        <x:v>688</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" hidden="0">
+      <x:c r="A178">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B178" s="2">
+        <x:v>45260.5893402778</x:v>
+      </x:c>
+      <x:c r="C178" s="2">
+        <x:v>45260.5930787037</x:v>
+      </x:c>
+      <x:c r="D178" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E178" s="10" t="s"/>
+      <x:c r="F178" s="2"/>
+      <x:c r="G178" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H178" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I178" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J178" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K178" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L178" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M178" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="N178" s="10" t="s"/>
+      <x:c r="O178" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P178" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q178" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R178" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S178" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="T178" s="10" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="U178">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V178" s="10" t="s">
+        <x:v>690</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" hidden="0">
+      <x:c r="A179">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B179" s="2">
+        <x:v>45260.5889699074</x:v>
+      </x:c>
+      <x:c r="C179" s="2">
+        <x:v>45260.5966087963</x:v>
+      </x:c>
+      <x:c r="D179" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E179" s="10" t="s"/>
+      <x:c r="F179" s="2"/>
+      <x:c r="G179" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H179" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I179" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J179" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K179" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L179" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M179" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N179" s="10" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="O179" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P179" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q179" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R179" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S179" s="10" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="T179" s="10" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="U179">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V179" s="10" t="s">
+        <x:v>693</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180" hidden="0">
+      <x:c r="A180">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B180" s="2">
+        <x:v>45260.5963541667</x:v>
+      </x:c>
+      <x:c r="C180" s="2">
+        <x:v>45260.6007638889</x:v>
+      </x:c>
+      <x:c r="D180" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E180" s="10" t="s"/>
+      <x:c r="F180" s="2"/>
+      <x:c r="G180" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H180" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I180" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J180" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K180" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L180" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M180" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N180" s="10" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="O180" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P180" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q180" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R180" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S180" s="10" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="T180" s="10" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="U180">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V180" s="10" t="s">
+        <x:v>697</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" hidden="0">
+      <x:c r="A181">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B181" s="2">
+        <x:v>45260.5996296296</x:v>
+      </x:c>
+      <x:c r="C181" s="2">
+        <x:v>45260.6013425926</x:v>
+      </x:c>
+      <x:c r="D181" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E181" s="10" t="s"/>
+      <x:c r="F181" s="2"/>
+      <x:c r="G181" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H181" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I181" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J181" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K181" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L181" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M181" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N181" s="10" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="O181" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P181" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q181" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R181" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S181" s="10" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="T181" s="10" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="U181">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V181" s="10" t="s">
+        <x:v>701</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" hidden="0">
+      <x:c r="A182">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B182" s="2">
+        <x:v>45260.600162037</x:v>
+      </x:c>
+      <x:c r="C182" s="2">
+        <x:v>45260.6017361111</x:v>
+      </x:c>
+      <x:c r="D182" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E182" s="10" t="s"/>
+      <x:c r="F182" s="2"/>
+      <x:c r="G182" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H182" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I182" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J182" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K182" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L182" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M182" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N182" s="10" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="O182" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P182" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q182" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R182" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S182" s="10" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="T182" s="10" t="s"/>
+      <x:c r="U182">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V182" s="10" t="s">
+        <x:v>704</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" hidden="0">
+      <x:c r="A183">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B183" s="2">
+        <x:v>45260.5967361111</x:v>
+      </x:c>
+      <x:c r="C183" s="2">
+        <x:v>45260.6028819444</x:v>
+      </x:c>
+      <x:c r="D183" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E183" s="10" t="s"/>
+      <x:c r="F183" s="2"/>
+      <x:c r="G183" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H183" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I183" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J183" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K183" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L183" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M183" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N183" s="10" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="O183" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P183" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q183" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R183" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S183" s="10" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="T183" s="10" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="U183">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V183" s="10" t="s">
+        <x:v>708</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184" hidden="0">
+      <x:c r="A184">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B184" s="2">
+        <x:v>45260.5995486111</x:v>
+      </x:c>
+      <x:c r="C184" s="2">
+        <x:v>45260.6032407407</x:v>
+      </x:c>
+      <x:c r="D184" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E184" s="10" t="s"/>
+      <x:c r="F184" s="2"/>
+      <x:c r="G184" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H184" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I184" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J184" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K184" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L184" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M184" s="10" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="N184" s="10" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="O184" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P184" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q184" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R184" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S184" s="10" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="T184" s="10" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="U184">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V184" s="10" t="s">
+        <x:v>712</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185" hidden="0">
+      <x:c r="A185">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B185" s="2">
+        <x:v>45260.6200925926</x:v>
+      </x:c>
+      <x:c r="C185" s="2">
+        <x:v>45260.6207638889</x:v>
+      </x:c>
+      <x:c r="D185" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E185" s="10" t="s"/>
+      <x:c r="F185" s="2"/>
+      <x:c r="G185" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H185" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I185" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J185" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K185" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L185" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M185" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N185" s="10" t="s"/>
+      <x:c r="O185" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P185" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q185" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R185" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S185" s="10" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="T185" s="10" t="s"/>
+      <x:c r="U185">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V185" s="10" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" hidden="0">
+      <x:c r="A186">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B186" s="2">
+        <x:v>45260.6197569444</x:v>
+      </x:c>
+      <x:c r="C186" s="2">
+        <x:v>45260.6213888889</x:v>
+      </x:c>
+      <x:c r="D186" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E186" s="10" t="s"/>
+      <x:c r="F186" s="2"/>
+      <x:c r="G186" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H186" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I186" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J186" s="10" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="K186" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L186" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M186" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N186" s="10" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="O186" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P186" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q186" s="10" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="R186" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S186" s="10" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="T186" s="10" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="U186">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V186" s="10" t="s">
+        <x:v>715</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187" hidden="0">
+      <x:c r="A187">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B187" s="2">
+        <x:v>45260.6323611111</x:v>
+      </x:c>
+      <x:c r="C187" s="2">
+        <x:v>45260.634525463</x:v>
+      </x:c>
+      <x:c r="D187" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E187" s="10" t="s"/>
+      <x:c r="F187" s="2"/>
+      <x:c r="G187" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H187" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I187" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J187" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K187" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L187" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M187" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N187" s="10" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="O187" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P187" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q187" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R187" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S187" s="10" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="T187" s="10" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="U187">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V187" s="10" t="s">
+        <x:v>719</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188" hidden="0">
+      <x:c r="A188">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B188" s="2">
+        <x:v>45260.6363194444</x:v>
+      </x:c>
+      <x:c r="C188" s="2">
+        <x:v>45260.6378819444</x:v>
+      </x:c>
+      <x:c r="D188" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E188" s="10" t="s"/>
+      <x:c r="F188" s="2"/>
+      <x:c r="G188" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H188" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I188" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J188" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K188" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L188" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M188" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N188" s="10" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="O188" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P188" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q188" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R188" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S188" s="10" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="T188" s="10" t="s"/>
+      <x:c r="U188">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V188" s="10" t="s">
+        <x:v>721</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189" hidden="0">
+      <x:c r="A189">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B189" s="2">
+        <x:v>45260.6562847222</x:v>
+      </x:c>
+      <x:c r="C189" s="2">
+        <x:v>45260.6563541667</x:v>
+      </x:c>
+      <x:c r="D189" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E189" s="10" t="s"/>
+      <x:c r="F189" s="2"/>
+      <x:c r="G189" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H189" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I189" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J189" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K189" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L189" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M189" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N189" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="O189" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P189" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q189" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R189" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S189" s="10" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="T189" s="10" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="U189">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V189" s="10" t="s">
+        <x:v>723</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" hidden="0">
+      <x:c r="A190">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B190" s="2">
+        <x:v>45260.6650578704</x:v>
+      </x:c>
+      <x:c r="C190" s="2">
+        <x:v>45260.6660416667</x:v>
+      </x:c>
+      <x:c r="D190" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E190" s="10" t="s"/>
+      <x:c r="F190" s="2"/>
+      <x:c r="G190" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H190" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I190" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J190" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K190" s="10" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="L190" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M190" s="10" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="N190" s="10" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="O190" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P190" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q190" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R190" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S190" s="10" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="T190" s="10" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="U190">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V190" s="10" t="s">
+        <x:v>728</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" hidden="0">
+      <x:c r="A191">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B191" s="2">
+        <x:v>45260.8026388889</x:v>
+      </x:c>
+      <x:c r="C191" s="2">
+        <x:v>45260.8040162037</x:v>
+      </x:c>
+      <x:c r="D191" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E191" s="10" t="s"/>
+      <x:c r="F191" s="2"/>
+      <x:c r="G191" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H191" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I191" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J191" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K191" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L191" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M191" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N191" s="10" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="O191" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P191" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q191" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R191" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S191" s="10" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="T191" s="10" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="U191">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V191" s="10" t="s">
+        <x:v>731</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" hidden="0">
+      <x:c r="A192">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B192" s="2">
+        <x:v>45260.9080671296</x:v>
+      </x:c>
+      <x:c r="C192" s="2">
+        <x:v>45260.9178819444</x:v>
+      </x:c>
+      <x:c r="D192" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E192" s="10" t="s"/>
+      <x:c r="F192" s="2"/>
+      <x:c r="G192" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H192" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I192" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J192" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K192" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L192" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M192" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N192" s="10" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="O192" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P192" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q192" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R192" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S192" s="10" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="T192" s="10" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="U192">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="V192" s="10" t="s">
+        <x:v>734</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" hidden="0">
+      <x:c r="A193">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B193" s="2">
+        <x:v>45260.9428819444</x:v>
+      </x:c>
+      <x:c r="C193" s="2">
+        <x:v>45260.945474537</x:v>
+      </x:c>
+      <x:c r="D193" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E193" s="10" t="s"/>
+      <x:c r="F193" s="2"/>
+      <x:c r="G193" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H193" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I193" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J193" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K193" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L193" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M193" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N193" s="10" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="O193" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P193" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q193" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R193" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S193" s="10" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="T193" s="10" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="U193">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V193" s="10" t="s">
+        <x:v>738</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R2d0da3fdce934f3f"/>
+    <x:tablePart r:id="R863a0a8c54924c21"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/datasets/rawdata.xlsx
+++ b/datasets/rawdata.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="739">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="901">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -2252,6 +2252,492 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Deduction;Exploration;Fantasy;Fighting;Medieval;Puzzle;Role-Playing ;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Behavioural Neuroscience</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Cooperative ;Deck-Building ;Deduction;Educational;Exploration;Fantasy;Fighting;Luck;Memory;Party ;Puzzle;Racing;Roll and Move ;Social Deduction/Hidden Role;Strategy;Tile-Laying ;Territory Building;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">English lit</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Deck-Building ;Deduction;Exploration;Fantasy;Farming;Medieval;Miniatures;Party ;Puzzle;Racing;Science Fiction;Strategy;Social Deduction/Hidden Role;Travel;Trivia;War ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Risk catan monopoly </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Civilization;Fantasy;Sports;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">food equity and sustainable agriculture </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Strategy;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: Listography, Game2: Speed, Game 3: Mancala</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Educational;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Art History and museum studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, gin rummy, cards against humanity, solitaire, “the weed game”(homemade board game) </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Cooperative ;Fighting;Puzzle;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Japanese Language </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Conflict/Competition;Cooperation;Party/Low-Stakes;Puzzle-Solving;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Scrabble 1, Uno 2, Werewolf 3, Mafia 4, Rat Screw 5, Poker 6, Speed 7, Go fish 8, Typhoon 9, Candy Land 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Cooperative ;Deck-Building ;Luck;Horror;Fighting;Memory;Party ;Racing;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Graphic design and marketing </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Trivia;Cooperation;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Deck-Building ;Fantasy;Fighting;Medieval;Racing;Role-Playing ;Science Fiction;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dungeons and dragons, monopoly, call of Cthulhu, warhammer 40k</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Fantasy;Exploration;Role-Playing ;Science Fiction;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Black or African American;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Music performance major</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Puzzle-Solving;Party/Low-Stakes;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: monopoly Game 2: speed</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Cooperative ;Deck-Building ;Memory;Puzzle;Roll and Move ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Conflict/Competition;Puzzle-Solving;Trivia;Social Deduction/Hidden Role;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Go-fish, Suspicion, Clue, Solitaire, Blockus, Monopoly, Pictionary, Yahtzee, Egyptian War/Rat screwy, Bananagrams</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Luck;Memory;Puzzle;Roll and Move ;Social Deduction/Hidden Role;Tile-Laying ;Trivia;Word ;Adventure;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Conflict/Competition;Strategy;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly, battleship</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Fantasy;Fighting;Medieval;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Environment Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Dixit, Catan, Take Off, Carcassonne </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Political;Social Deduction/Hidden Role;Strategy;Tile-Laying ;Trains;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Social Deduction/Hidden Role;Party/Low-Stakes;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Magic The Gathering, Settlers of Catan, Star Realms, Risk, Sequence, Poker, Cribbage</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Auction;Card Drafting;Card;Deck-Building ;Deduction;Fantasy;Fighting;Party ;Science Fiction;Social Deduction/Hidden Role;Territory Building;Tile-Laying ;War ;Worker Placement;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“cards against humanity”, “murder mystery”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card Drafting;Card;Civilization;Cooperative ;Deduction;Economic;Educational;Fantasy;Exploration;Horror;Fighting;Memory;Miniatures;Party ;Pirates;Puzzle;Roll and Move ;Racing;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Transportation;Trivia;War ;Worker Placement;Word ;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">I believe a god exists but don’t follow any religious texts</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Business or elementary education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Conflict/Competition;Cooperation;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, phase 10, monopoly, Jenga</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Native American or American Indian;White;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Marine and Coastal Science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">game 1: bullshit game 2: war game 3: super fight game 4: cards against humanity game 5: jenga</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Exploration;Fantasy;Luck;Memory;Party ;Puzzle;Roll and Move ;Territory Building;Trivia;Travel;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Strategy;Party/Low-Stakes;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, cribbage, spades, code names, coup, wizard, wing span</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Party ;Territory Building;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Undeclared, strongly thinking about history </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Catan, Clue, Dutch Blitz, BS, DnD, Cards Against Humanity, DixIt, Mancala, Escape Puzzle Games, Yahtzee, 9 Hole(s of Golf), Garbage, The Oregon Trail (Card Game), Skip Bo, Puzzles, Pit, Monopoly</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Auction;Card Drafting;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Economic;Educational;Exploration;Fantasy;Farming;Fighting;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Political;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;Worker Placement;Word ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Cooperation;Social Deduction/Hidden Role;Strategy;Heavy/Immersive Theming;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Civilization;Cooperative ;Exploration;Fantasy;Farming;Fighting;Luck;Medieval;Memory;Party ;Roll and Move ;Role-Playing ;Science Fiction;Strategy;Territory Building;Tile-Laying ;Trains;War ;Trivia;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Electrical and computer engineering </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Trivia;Conflict/Competition;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Sorry”,”Uno”,”monopoly”,”blackjack”,”bs”,”chess”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Deck-Building ;Fighting;Trivia;Adventure;Horror;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Public Health</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Cooperation;Luck;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cards Against Humanity, Uno, Drunk Jenga, Mastermind, Clue, Quirkle</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Luck;Memory;Party ;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Conflict/Competition;Puzzle-Solving;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Memory;Party ;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Energy Policy and Management </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Civilization;Cooperative ;Economic;Abstract Strategy;Political;Role-Playing ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Undeclared</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Party/Low-Stakes;Trivia;Luck;Social Deduction/Hidden Role;Strategy;Puzzle-Solving;Heavy/Immersive Theming;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Clue, BS Card game</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Civilization;Cooperative ;Deck-Building ;Deduction;Fighting;Farming;Party ;Puzzle;Racing;Role-Playing ;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Fine Arts</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, Cards Against Humanity </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card Drafting;Economic;Farming;Fantasy;Exploration;Party ;Medieval;Luck;World War II;Travel;Territory Building;Sports;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Strategy;Social Deduction/Hidden Role;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“Magic: the Gathering”, “Disney Lorcana”, “chess”, “Secret Hitler”, “Avalon”, “Taco Cat Goat Cheese Pizza”, “Casino”, “Poker”, “Bananagrams”, “Coup”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Deck-Building ;Deduction;Fantasy;Political;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Undecided </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Luck;Social Deduction/Hidden Role;Strategy;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">I normally only play card games at family events so i dont rlly know names off the top of my head</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Civilization;Deck-Building ;Cooperative ;Deduction;Economic;Educational;Fantasy;Fighting;Luck;Medieval;Memory;Miniatures;Party ;Puzzle;Roll and Move ;Science Fiction;Social Deduction/Hidden Role;Sports;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Travel;Trivia;War ;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">English, History of Culture </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Clue, card deck games (bullshit, nertz, 21), apples to apples, Harry Potter trivia, blockus</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Memory;Party ;Puzzle;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Luck;Puzzle-Solving;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno Attack, Cards Against Humanity, Life, Toss Up, Shut the Box</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Civilization;Cooperative ;Educational;Exploration;Luck;Memory;Miniatures;Party ;Puzzle;Racing;Roll and Move ;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Strategy;Trivia;Party/Low-Stakes;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">uno flip, mancala, monopoly deal, 13’s, golf, ticket to ride, settlers of catan, wingspan, above and below, rack-o</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Card;Civilization;Cooperative ;Educational;Exploration;Fantasy;Farming;Luck;Memory;Party ;Puzzle;Roll and Move ;Strategy;Territory Building;Tile-Laying ;Trains;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Trivia;Heavy/Immersive Theming;Strategy;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Settlers of Catan, Cards Against Humanity, Dominion, Munchkin, Ticket to Ride, Dominos (Mexican Trains)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card Drafting;Card;Civilization;Exploration;Fantasy;Horror;Memory;Party ;Puzzle;Trains;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Psychology and elementary education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Puzzle-Solving;Party/Low-Stakes;Social Deduction/Hidden Role;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Settlers of catan, secret hitler, splendor, monopoly, BS, spoons, scattegories, and cards against humanity </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card Drafting;Card;Civilization;Cooperative ;Exploration;Puzzle;Roll and Move ;Social Deduction/Hidden Role;Strategy;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Communication Science and Disordwrs</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Mysterium, monopoly, risk, smart ass, trivial pursuit, scrabble</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Civilization;Cooperative ;Fantasy;Fighting;Medieval;Memory;Party ;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Anthropology/history</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Conflict/Competition;Luck;Strategy;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cards against humanity , kings in the corner, black jack, spoons, monopoly </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Deduction;Luck;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Special Education and Elementary Education </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Social Deduction/Hidden Role;Puzzle-Solving;Trivia;Party/Low-Stakes;Heavy/Immersive Theming;Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Game 1: Uno, Game 2: Cards Against Humanity, Game 3: Code Names Duet</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Card;Cooperative ;Deduction;Educational;Fantasy;Horror;Memory;Party ;Puzzle;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">IBUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Civilization;Economic;Exploration;Farming;Fighting;Medieval;Political;Role-Playing ;Science Fiction;Strategy;Territory Building;War ;World War II;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Energy science</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Puzzle-Solving;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, blink, rummikub </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Civilization;Party ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Strategy;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Uno, sorry, monopoly, clue, black jack</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Abstract Strategy;Card Drafting;Card;Puzzle;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Social Deduction/Hidden Role;Heavy/Immersive Theming;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ROOT, Coup, Catan, Clue, Scotland Yard</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Deduction;Deck-Building ;Fantasy;Miniatures;Party ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Tile-Laying ;Trains;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Cooperative ;Party ;Political;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Neither</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Politics/Philosophy/Economics</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Social Deduction/Hidden Role;Strategy;Luck;Heavy/Immersive Theming;Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Magic: The Gathering, Settlers of Catan, Spirit Island, Werewolf, Cribbage, BS, Bananagrams, Coup, Exploding Kittens</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card Drafting;Card;Cooperative ;Deck-Building ;Economic;Fantasy;Fighting;Horror;Medieval;Political;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;World War II;Zombies;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Studio art </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Animals;Auction;Card Drafting;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Educational;Exploration;Fantasy;Farming;Fighting;Horror;Luck;Medieval;Memory;Miniatures;Party ;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Sports;Strategy;Trains;Transportation;Travel;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Strategy;Conflict/Competition;Trivia;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Monopoly Clue Sorry Ticket to Ride Candy Land Life Shoots and Ladders (i give up)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Luck;Party ;Strategy;Trains;Trivia;War ;Word ;Abstract Strategy;Adventure;Animals;Card;Deck-Building ;Cooperative ;Memory;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Puzzle-Solving;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Memory;Puzzle;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Genderqueer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">History/Social Studies</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ticket To Ride, UNO, Spades, Hearts, Progression</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Card;Civilization;Cooperative ;Abstract Strategy;Fighting;Farming;Memory;Miniatures;Party ;Political;Puzzle;Roll and Move ;Role-Playing ;Social Deduction/Hidden Role;Trains;Trivia;War ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">chemistry</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Trivia;Social Deduction/Hidden Role;Puzzle-Solving;Strategy;Luck;Cooperation;Conflict/Competition;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">chess, uno, ticket to ride, settlers of catan, monopoly, various card games, unstable unicorns, exploding kittens, anomia, penny black</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Animals;Card;Civilization;Cooperative ;Deduction;Educational;Fantasy;Farming;Fighting;Luck;Medieval;Miniatures;Puzzle;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Energy</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Party ;Strategy;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Fantasy;Fighting;Luck;Memory;Role-Playing ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Behavioral Neuroscience </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Strategy;Luck;Social Deduction/Hidden Role;Puzzle-Solving;Party/Low-Stakes;Trivia;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">“D&amp;D”, “Uno”, “SushiGo”, “Dutch Blitz”, “Mastermind”, “Blood on the Watchtower”</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Adventure;Card;Cooperative ;Civilization;Deck-Building ;Animals;Deduction;Abstract Strategy;Educational;Exploration;Fantasy;Farming;Fighting;Horror;Luck;Memory;Miniatures;Party ;Pirates;Puzzle;Roll and Move ;Role-Playing ;Social Deduction/Hidden Role;Strategy;Tile-Laying ;Trains;Travel;Trivia;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cooperation;Conflict/Competition;Heavy/Immersive Theming;Puzzle-Solving;Trivia;Social Deduction/Hidden Role;Strategy;Luck;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Coup, Solitaire, Root, Anomia, The Crew, Codenames, Wavelength, Catan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abstract Strategy;Adventure;Card;Civilization;Cooperative ;Deck-Building ;Deduction;Fantasy;Fighting;Horror;Medieval;Miniatures;Pirates;Puzzle;Racing;Roll and Move ;Role-Playing ;Science Fiction;Social Deduction/Hidden Role;Strategy;Territory Building;Tile-Laying ;Trains;Transportation;Trivia;Worker Placement;Word ;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Social Deduction/Hidden Role;Party/Low-Stakes;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">"Uno","Cards Against Humanity",</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Party ;Abstract Strategy;Card;Cooperative ;Deduction;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2348,8 +2834,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V193" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:V193"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:V245" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:V245"/>
   <x:tableColumns count="22">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -14895,11 +15381,3297 @@
         <x:v>738</x:v>
       </x:c>
     </x:row>
+    <x:row r="194" hidden="0">
+      <x:c r="A194">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B194" s="2">
+        <x:v>45261.419212963</x:v>
+      </x:c>
+      <x:c r="C194" s="2">
+        <x:v>45261.4209837963</x:v>
+      </x:c>
+      <x:c r="D194" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E194" s="10" t="s"/>
+      <x:c r="F194" s="2"/>
+      <x:c r="G194" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H194" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I194" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J194" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K194" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L194" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M194" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N194" s="10" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="O194" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P194" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q194" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R194" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S194" s="10" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="T194" s="10" t="s"/>
+      <x:c r="U194">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V194" s="10" t="s">
+        <x:v>740</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195" hidden="0">
+      <x:c r="A195">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B195" s="2">
+        <x:v>45261.6281712963</x:v>
+      </x:c>
+      <x:c r="C195" s="2">
+        <x:v>45261.6294444444</x:v>
+      </x:c>
+      <x:c r="D195" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E195" s="10" t="s"/>
+      <x:c r="F195" s="2"/>
+      <x:c r="G195" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H195" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I195" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J195" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K195" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L195" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M195" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N195" s="10" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="O195" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P195" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q195" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R195" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S195" s="10" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="T195" s="10" t="s"/>
+      <x:c r="U195"/>
+      <x:c r="V195" s="10" t="s">
+        <x:v>742</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" hidden="0">
+      <x:c r="A196">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B196" s="2">
+        <x:v>45261.6288078704</x:v>
+      </x:c>
+      <x:c r="C196" s="2">
+        <x:v>45261.6295833333</x:v>
+      </x:c>
+      <x:c r="D196" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E196" s="10" t="s"/>
+      <x:c r="F196" s="2"/>
+      <x:c r="G196" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H196" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I196" s="10" t="s"/>
+      <x:c r="J196" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K196" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L196" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M196" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N196" s="10" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="O196" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P196" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q196" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R196" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S196" s="10" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="T196" s="10" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="U196">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V196" s="10" t="s">
+        <x:v>744</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" hidden="0">
+      <x:c r="A197">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B197" s="2">
+        <x:v>45261.6278819444</x:v>
+      </x:c>
+      <x:c r="C197" s="2">
+        <x:v>45261.6298263889</x:v>
+      </x:c>
+      <x:c r="D197" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E197" s="10" t="s"/>
+      <x:c r="F197" s="2"/>
+      <x:c r="G197" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H197" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I197" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J197" s="10" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="K197" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L197" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M197" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N197" s="10" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="O197" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P197" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q197" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R197" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S197" s="10" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="T197" s="10" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="U197">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V197" s="10" t="s">
+        <x:v>748</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" hidden="0">
+      <x:c r="A198">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B198" s="2">
+        <x:v>45261.6281828704</x:v>
+      </x:c>
+      <x:c r="C198" s="2">
+        <x:v>45261.6314467593</x:v>
+      </x:c>
+      <x:c r="D198" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E198" s="10" t="s"/>
+      <x:c r="F198" s="2"/>
+      <x:c r="G198" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H198" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I198" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J198" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K198" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L198" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M198" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N198" s="10" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="O198" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P198" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q198" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R198" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S198" s="10" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="T198" s="10" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="U198">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V198" s="10" t="s">
+        <x:v>752</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" hidden="0">
+      <x:c r="A199">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B199" s="2">
+        <x:v>45261.6282986111</x:v>
+      </x:c>
+      <x:c r="C199" s="2">
+        <x:v>45261.6321296296</x:v>
+      </x:c>
+      <x:c r="D199" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E199" s="10" t="s"/>
+      <x:c r="F199" s="2"/>
+      <x:c r="G199" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H199" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I199" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J199" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K199" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L199" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M199" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N199" s="10" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="O199" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P199" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q199" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R199" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S199" s="10" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="T199" s="10" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="U199">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V199" s="10" t="s">
+        <x:v>756</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200" hidden="0">
+      <x:c r="A200">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B200" s="2">
+        <x:v>45261.6309722222</x:v>
+      </x:c>
+      <x:c r="C200" s="2">
+        <x:v>45261.6330671296</x:v>
+      </x:c>
+      <x:c r="D200" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E200" s="10" t="s"/>
+      <x:c r="F200" s="2"/>
+      <x:c r="G200" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H200" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I200" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J200" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K200" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L200" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M200" s="10" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="N200" s="10" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="O200" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P200" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q200" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R200" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S200" s="10" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="T200" s="10" t="s"/>
+      <x:c r="U200">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V200" s="10" t="s">
+        <x:v>759</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201" hidden="0">
+      <x:c r="A201">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B201" s="2">
+        <x:v>45261.6308217593</x:v>
+      </x:c>
+      <x:c r="C201" s="2">
+        <x:v>45261.6335185185</x:v>
+      </x:c>
+      <x:c r="D201" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E201" s="10" t="s"/>
+      <x:c r="F201" s="2"/>
+      <x:c r="G201" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H201" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I201" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J201" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K201" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L201" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M201" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N201" s="10" t="s"/>
+      <x:c r="O201" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P201" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q201" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R201" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S201" s="10" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="T201" s="10" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="U201">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V201" s="10" t="s">
+        <x:v>762</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202" hidden="0">
+      <x:c r="A202">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B202" s="2">
+        <x:v>45261.6330208333</x:v>
+      </x:c>
+      <x:c r="C202" s="2">
+        <x:v>45261.6347685185</x:v>
+      </x:c>
+      <x:c r="D202" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E202" s="10" t="s"/>
+      <x:c r="F202" s="2"/>
+      <x:c r="G202" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H202" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I202" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J202" s="10" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="K202" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L202" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M202" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N202" s="10" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="O202" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P202" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q202" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R202" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S202" s="10" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="T202" s="10" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="U202">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V202" s="10" t="s">
+        <x:v>767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203" hidden="0">
+      <x:c r="A203">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B203" s="2">
+        <x:v>45261.630625</x:v>
+      </x:c>
+      <x:c r="C203" s="2">
+        <x:v>45261.6352662037</x:v>
+      </x:c>
+      <x:c r="D203" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E203" s="10" t="s"/>
+      <x:c r="F203" s="2"/>
+      <x:c r="G203" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H203" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I203" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J203" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K203" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L203" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M203" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N203" s="10" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="O203" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P203" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q203" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R203" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S203" s="10" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="T203" s="10" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="U203">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V203" s="10" t="s">
+        <x:v>770</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204" hidden="0">
+      <x:c r="A204">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B204" s="2">
+        <x:v>45261.6339930556</x:v>
+      </x:c>
+      <x:c r="C204" s="2">
+        <x:v>45261.6353125</x:v>
+      </x:c>
+      <x:c r="D204" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E204" s="10" t="s"/>
+      <x:c r="F204" s="2"/>
+      <x:c r="G204" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H204" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I204" s="7" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="J204" s="10" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="K204" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L204" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M204" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N204" s="10" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="O204" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P204" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q204" s="10" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R204" s="10" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="S204" s="10" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="T204" s="10" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="U204">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V204" s="10" t="s">
+        <x:v>773</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205" hidden="0">
+      <x:c r="A205">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B205" s="2">
+        <x:v>45261.6343634259</x:v>
+      </x:c>
+      <x:c r="C205" s="2">
+        <x:v>45261.6363425926</x:v>
+      </x:c>
+      <x:c r="D205" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E205" s="10" t="s"/>
+      <x:c r="F205" s="2"/>
+      <x:c r="G205" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H205" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I205" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J205" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K205" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L205" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M205" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N205" s="10" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="O205" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P205" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q205" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R205" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S205" s="10" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="T205" s="10" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="U205">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V205" s="10" t="s">
+        <x:v>776</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206" hidden="0">
+      <x:c r="A206">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B206" s="2">
+        <x:v>45261.6361111111</x:v>
+      </x:c>
+      <x:c r="C206" s="2">
+        <x:v>45261.6372685185</x:v>
+      </x:c>
+      <x:c r="D206" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E206" s="10" t="s"/>
+      <x:c r="F206" s="2"/>
+      <x:c r="G206" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H206" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I206" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J206" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K206" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L206" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M206" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N206" s="10" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="O206" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P206" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q206" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R206" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S206" s="10" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="T206" s="10" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="U206">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V206" s="10" t="s">
+        <x:v>779</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" hidden="0">
+      <x:c r="A207">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B207" s="2">
+        <x:v>45261.63375</x:v>
+      </x:c>
+      <x:c r="C207" s="2">
+        <x:v>45261.6379398148</x:v>
+      </x:c>
+      <x:c r="D207" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E207" s="10" t="s"/>
+      <x:c r="F207" s="2"/>
+      <x:c r="G207" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H207" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I207" s="10" t="s"/>
+      <x:c r="J207" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K207" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L207" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M207" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N207" s="10" t="s"/>
+      <x:c r="O207" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P207" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q207" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R207" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S207" s="10" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="T207" s="10" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="U207">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V207" s="10" t="s">
+        <x:v>781</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208" hidden="0">
+      <x:c r="A208">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B208" s="2">
+        <x:v>45261.6344097222</x:v>
+      </x:c>
+      <x:c r="C208" s="2">
+        <x:v>45261.6387037037</x:v>
+      </x:c>
+      <x:c r="D208" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E208" s="10" t="s"/>
+      <x:c r="F208" s="2"/>
+      <x:c r="G208" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H208" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I208" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J208" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K208" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L208" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M208" s="10" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="N208" s="10" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="O208" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P208" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q208" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R208" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S208" s="10" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="T208" s="10" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="U208">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V208" s="10" t="s">
+        <x:v>786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209" hidden="0">
+      <x:c r="A209">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B209" s="2">
+        <x:v>45261.6347222222</x:v>
+      </x:c>
+      <x:c r="C209" s="2">
+        <x:v>45261.6388888889</x:v>
+      </x:c>
+      <x:c r="D209" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E209" s="10" t="s"/>
+      <x:c r="F209" s="2"/>
+      <x:c r="G209" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H209" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="I209" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J209" s="10" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="K209" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L209" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M209" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N209" s="10" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="O209" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P209" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q209" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R209" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S209" s="10" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="T209" s="10" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="U209">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V209" s="10" t="s">
+        <x:v>790</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210" hidden="0">
+      <x:c r="A210">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B210" s="2">
+        <x:v>45261.6377546296</x:v>
+      </x:c>
+      <x:c r="C210" s="2">
+        <x:v>45261.6404976852</x:v>
+      </x:c>
+      <x:c r="D210" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E210" s="10" t="s"/>
+      <x:c r="F210" s="2"/>
+      <x:c r="G210" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H210" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I210" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J210" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K210" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L210" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M210" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N210" s="10" t="s"/>
+      <x:c r="O210" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P210" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q210" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R210" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S210" s="10" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="T210" s="10" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="U210">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V210" s="10" t="s">
+        <x:v>793</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211" hidden="0">
+      <x:c r="A211">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B211" s="2">
+        <x:v>45261.633900463</x:v>
+      </x:c>
+      <x:c r="C211" s="2">
+        <x:v>45261.6412615741</x:v>
+      </x:c>
+      <x:c r="D211" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E211" s="10" t="s"/>
+      <x:c r="F211" s="2"/>
+      <x:c r="G211" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H211" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I211" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J211" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K211" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L211" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M211" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N211" s="10" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="O211" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P211" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q211" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R211" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S211" s="10" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="T211" s="10" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="U211">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V211" s="10" t="s">
+        <x:v>796</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212" hidden="0">
+      <x:c r="A212">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B212" s="2">
+        <x:v>45261.6397453704</x:v>
+      </x:c>
+      <x:c r="C212" s="2">
+        <x:v>45261.6414351852</x:v>
+      </x:c>
+      <x:c r="D212" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E212" s="10" t="s"/>
+      <x:c r="F212" s="2"/>
+      <x:c r="G212" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H212" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I212" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J212" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K212" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L212" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M212" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N212" s="10" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="O212" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P212" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q212" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R212" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S212" s="10" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="T212" s="10" t="s"/>
+      <x:c r="U212">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V212" s="10" t="s">
+        <x:v>798</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213" hidden="0">
+      <x:c r="A213">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B213" s="2">
+        <x:v>45261.6393055556</x:v>
+      </x:c>
+      <x:c r="C213" s="2">
+        <x:v>45261.6414699074</x:v>
+      </x:c>
+      <x:c r="D213" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E213" s="10" t="s"/>
+      <x:c r="F213" s="2"/>
+      <x:c r="G213" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H213" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I213" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J213" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K213" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L213" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M213" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N213" s="10" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="O213" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P213" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q213" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R213" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S213" s="10" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="T213" s="10" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="U213">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V213" s="10" t="s">
+        <x:v>802</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214" hidden="0">
+      <x:c r="A214">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B214" s="2">
+        <x:v>45261.6388078704</x:v>
+      </x:c>
+      <x:c r="C214" s="2">
+        <x:v>45261.6420486111</x:v>
+      </x:c>
+      <x:c r="D214" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E214" s="10" t="s"/>
+      <x:c r="F214" s="2"/>
+      <x:c r="G214" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H214" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I214" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J214" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K214" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L214" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M214" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N214" s="10" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="O214" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P214" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q214" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R214" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S214" s="10" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="T214" s="10" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="U214">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V214" s="10" t="s">
+        <x:v>806</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215" hidden="0">
+      <x:c r="A215">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B215" s="2">
+        <x:v>45261.6412731481</x:v>
+      </x:c>
+      <x:c r="C215" s="2">
+        <x:v>45261.6428703704</x:v>
+      </x:c>
+      <x:c r="D215" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E215" s="10" t="s"/>
+      <x:c r="F215" s="2"/>
+      <x:c r="G215" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H215" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I215" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J215" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K215" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L215" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M215" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N215" s="10" t="s"/>
+      <x:c r="O215" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P215" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q215" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R215" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S215" s="10" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="T215" s="10" t="s"/>
+      <x:c r="U215">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V215" s="10" t="s">
+        <x:v>808</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216" hidden="0">
+      <x:c r="A216">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B216" s="2">
+        <x:v>45261.641400463</x:v>
+      </x:c>
+      <x:c r="C216" s="2">
+        <x:v>45261.6431134259</x:v>
+      </x:c>
+      <x:c r="D216" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E216" s="10" t="s"/>
+      <x:c r="F216" s="2"/>
+      <x:c r="G216" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H216" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I216" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J216" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K216" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L216" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M216" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N216" s="10" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="O216" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P216" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q216" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R216" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S216" s="10" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="T216" s="10" t="s"/>
+      <x:c r="U216">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V216" s="10" t="s">
+        <x:v>811</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" hidden="0">
+      <x:c r="A217">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B217" s="2">
+        <x:v>45261.6316782407</x:v>
+      </x:c>
+      <x:c r="C217" s="2">
+        <x:v>45261.6440856481</x:v>
+      </x:c>
+      <x:c r="D217" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E217" s="10" t="s"/>
+      <x:c r="F217" s="2"/>
+      <x:c r="G217" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H217" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I217" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J217" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K217" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L217" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M217" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N217" s="10" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="O217" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P217" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q217" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R217" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S217" s="10" t="s">
+        <x:v>813</x:v>
+      </x:c>
+      <x:c r="T217" s="10" t="s">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c r="U217">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V217" s="10" t="s">
+        <x:v>815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218" hidden="0">
+      <x:c r="A218">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B218" s="2">
+        <x:v>45261.6428125</x:v>
+      </x:c>
+      <x:c r="C218" s="2">
+        <x:v>45261.6443634259</x:v>
+      </x:c>
+      <x:c r="D218" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E218" s="10" t="s"/>
+      <x:c r="F218" s="2"/>
+      <x:c r="G218" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H218" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I218" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J218" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K218" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L218" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M218" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N218" s="10" t="s">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c r="O218" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P218" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q218" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R218" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S218" s="10" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="T218" s="10" t="s">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c r="U218">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V218" s="10" t="s">
+        <x:v>786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219" hidden="0">
+      <x:c r="A219">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B219" s="2">
+        <x:v>45261.6438078704</x:v>
+      </x:c>
+      <x:c r="C219" s="2">
+        <x:v>45261.6450925926</x:v>
+      </x:c>
+      <x:c r="D219" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E219" s="10" t="s"/>
+      <x:c r="F219" s="2"/>
+      <x:c r="G219" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H219" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I219" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J219" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K219" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L219" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M219" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N219" s="10" t="s"/>
+      <x:c r="O219" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P219" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q219" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R219" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S219" s="10" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="T219" s="10" t="s"/>
+      <x:c r="U219">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V219" s="10" t="s">
+        <x:v>819</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" hidden="0">
+      <x:c r="A220">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B220" s="2">
+        <x:v>45261.639212963</x:v>
+      </x:c>
+      <x:c r="C220" s="2">
+        <x:v>45261.6458217593</x:v>
+      </x:c>
+      <x:c r="D220" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E220" s="10" t="s"/>
+      <x:c r="F220" s="2"/>
+      <x:c r="G220" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H220" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I220" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J220" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K220" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L220" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M220" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N220" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O220" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P220" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q220" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R220" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S220" s="10" t="s">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="T220" s="10" t="s">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="U220">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V220" s="10" t="s">
+        <x:v>822</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221" hidden="0">
+      <x:c r="A221">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B221" s="2">
+        <x:v>45261.6426851852</x:v>
+      </x:c>
+      <x:c r="C221" s="2">
+        <x:v>45261.6474884259</x:v>
+      </x:c>
+      <x:c r="D221" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E221" s="10" t="s"/>
+      <x:c r="F221" s="2"/>
+      <x:c r="G221" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H221" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I221" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J221" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K221" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L221" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M221" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N221" s="10" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="O221" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P221" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q221" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R221" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S221" s="10" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="T221" s="10" t="s">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c r="U221">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V221" s="10" t="s">
+        <x:v>826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" hidden="0">
+      <x:c r="A222">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B222" s="2">
+        <x:v>45261.6453240741</x:v>
+      </x:c>
+      <x:c r="C222" s="2">
+        <x:v>45261.6478935185</x:v>
+      </x:c>
+      <x:c r="D222" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E222" s="10" t="s"/>
+      <x:c r="F222" s="2"/>
+      <x:c r="G222" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H222" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I222" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J222" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K222" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L222" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M222" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="N222" s="10" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="O222" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P222" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q222" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R222" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S222" s="10" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="T222" s="10" t="s">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c r="U222">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V222" s="10" t="s">
+        <x:v>829</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" hidden="0">
+      <x:c r="A223">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B223" s="2">
+        <x:v>45261.645775463</x:v>
+      </x:c>
+      <x:c r="C223" s="2">
+        <x:v>45261.6479398148</x:v>
+      </x:c>
+      <x:c r="D223" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E223" s="10" t="s"/>
+      <x:c r="F223" s="2"/>
+      <x:c r="G223" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H223" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I223" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J223" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K223" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L223" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M223" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N223" s="10" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="O223" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P223" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q223" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R223" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S223" s="10" t="s">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="T223" s="10" t="s">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c r="U223">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V223" s="10" t="s">
+        <x:v>832</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" hidden="0">
+      <x:c r="A224">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B224" s="2">
+        <x:v>45261.6454861111</x:v>
+      </x:c>
+      <x:c r="C224" s="2">
+        <x:v>45261.6486689815</x:v>
+      </x:c>
+      <x:c r="D224" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E224" s="10" t="s"/>
+      <x:c r="F224" s="2"/>
+      <x:c r="G224" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H224" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I224" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J224" s="10" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="K224" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L224" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M224" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N224" s="10" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="O224" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P224" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Q224" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R224" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S224" s="10" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="T224" s="10" t="s">
+        <x:v>834</x:v>
+      </x:c>
+      <x:c r="U224">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V224" s="10" t="s">
+        <x:v>835</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" hidden="0">
+      <x:c r="A225">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B225" s="2">
+        <x:v>45261.6477314815</x:v>
+      </x:c>
+      <x:c r="C225" s="2">
+        <x:v>45261.6527662037</x:v>
+      </x:c>
+      <x:c r="D225" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E225" s="10" t="s"/>
+      <x:c r="F225" s="2"/>
+      <x:c r="G225" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H225" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I225" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J225" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K225" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L225" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M225" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N225" s="10" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="O225" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P225" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q225" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R225" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S225" s="10" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="T225" s="10" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="U225">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V225" s="10" t="s">
+        <x:v>838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" hidden="0">
+      <x:c r="A226">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B226" s="2">
+        <x:v>45261.6517361111</x:v>
+      </x:c>
+      <x:c r="C226" s="2">
+        <x:v>45261.6537847222</x:v>
+      </x:c>
+      <x:c r="D226" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E226" s="10" t="s"/>
+      <x:c r="F226" s="2"/>
+      <x:c r="G226" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H226" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I226" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J226" s="10" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="K226" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L226" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M226" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N226" s="10" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="O226" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P226" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q226" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R226" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S226" s="10" t="s">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="T226" s="10" t="s">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="U226">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V226" s="10" t="s">
+        <x:v>842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" hidden="0">
+      <x:c r="A227">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B227" s="2">
+        <x:v>45261.6532523148</x:v>
+      </x:c>
+      <x:c r="C227" s="2">
+        <x:v>45261.6554050926</x:v>
+      </x:c>
+      <x:c r="D227" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E227" s="10" t="s"/>
+      <x:c r="F227" s="2"/>
+      <x:c r="G227" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H227" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I227" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J227" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K227" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L227" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M227" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N227" s="10" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="O227" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P227" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q227" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R227" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S227" s="10" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="T227" s="10" t="s">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c r="U227">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V227" s="10" t="s">
+        <x:v>845</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" hidden="0">
+      <x:c r="A228">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B228" s="2">
+        <x:v>45261.6545486111</x:v>
+      </x:c>
+      <x:c r="C228" s="2">
+        <x:v>45261.6568518518</x:v>
+      </x:c>
+      <x:c r="D228" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E228" s="10" t="s"/>
+      <x:c r="F228" s="2"/>
+      <x:c r="G228" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H228" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I228" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J228" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K228" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L228" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M228" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N228" s="10" t="s">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c r="O228" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P228" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q228" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R228" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S228" s="10" t="s">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c r="T228" s="10" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="U228">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V228" s="10" t="s">
+        <x:v>849</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" hidden="0">
+      <x:c r="A229">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B229" s="2">
+        <x:v>45261.6582060185</x:v>
+      </x:c>
+      <x:c r="C229" s="2">
+        <x:v>45261.6611111111</x:v>
+      </x:c>
+      <x:c r="D229" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E229" s="10" t="s"/>
+      <x:c r="F229" s="2"/>
+      <x:c r="G229" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H229" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I229" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J229" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K229" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L229" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M229" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N229" s="10" t="s">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="O229" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P229" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q229" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R229" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S229" s="10" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="T229" s="10" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="U229">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V229" s="10" t="s">
+        <x:v>853</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230" hidden="0">
+      <x:c r="A230">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B230" s="2">
+        <x:v>45261.6611574074</x:v>
+      </x:c>
+      <x:c r="C230" s="2">
+        <x:v>45261.6626851852</x:v>
+      </x:c>
+      <x:c r="D230" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E230" s="10" t="s"/>
+      <x:c r="F230" s="2"/>
+      <x:c r="G230" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H230" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I230" s="7" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J230" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K230" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L230" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M230" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N230" s="10" t="s">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c r="O230" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P230" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q230" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R230" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S230" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T230" s="10" t="s"/>
+      <x:c r="U230">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V230" s="10" t="s">
+        <x:v>855</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231" hidden="0">
+      <x:c r="A231">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B231" s="2">
+        <x:v>45261.6614930556</x:v>
+      </x:c>
+      <x:c r="C231" s="2">
+        <x:v>45261.662974537</x:v>
+      </x:c>
+      <x:c r="D231" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E231" s="10" t="s"/>
+      <x:c r="F231" s="2"/>
+      <x:c r="G231" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H231" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I231" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J231" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K231" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L231" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M231" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N231" s="10" t="s">
+        <x:v>856</x:v>
+      </x:c>
+      <x:c r="O231" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P231" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q231" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R231" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S231" s="10" t="s">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c r="T231" s="10" t="s">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c r="U231">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V231" s="10" t="s">
+        <x:v>859</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232" hidden="0">
+      <x:c r="A232">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B232" s="2">
+        <x:v>45261.6615046296</x:v>
+      </x:c>
+      <x:c r="C232" s="2">
+        <x:v>45261.6636921296</x:v>
+      </x:c>
+      <x:c r="D232" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E232" s="10" t="s"/>
+      <x:c r="F232" s="2"/>
+      <x:c r="G232" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H232" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I232" s="7" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J232" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K232" s="10" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="L232" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M232" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N232" s="10" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="O232" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P232" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q232" s="10" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="R232" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="S232" s="10" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="T232" s="10" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="U232">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V232" s="10" t="s">
+        <x:v>862</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233" hidden="0">
+      <x:c r="A233">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B233" s="2">
+        <x:v>45261.6607638889</x:v>
+      </x:c>
+      <x:c r="C233" s="2">
+        <x:v>45261.6641666667</x:v>
+      </x:c>
+      <x:c r="D233" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E233" s="10" t="s"/>
+      <x:c r="F233" s="2"/>
+      <x:c r="G233" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H233" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I233" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J233" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K233" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L233" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M233" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N233" s="10" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="O233" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P233" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q233" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R233" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S233" s="10" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="T233" s="10" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="U233">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V233" s="10" t="s">
+        <x:v>865</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" hidden="0">
+      <x:c r="A234">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B234" s="2">
+        <x:v>45261.6561226852</x:v>
+      </x:c>
+      <x:c r="C234" s="2">
+        <x:v>45261.6642013889</x:v>
+      </x:c>
+      <x:c r="D234" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E234" s="10" t="s"/>
+      <x:c r="F234" s="2"/>
+      <x:c r="G234" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H234" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I234" s="7" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="J234" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K234" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L234" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M234" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N234" s="10" t="s"/>
+      <x:c r="O234" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P234" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q234" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="R234" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S234" s="10" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="T234" s="10" t="s"/>
+      <x:c r="U234">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="V234" s="10" t="s">
+        <x:v>867</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235" hidden="0">
+      <x:c r="A235">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B235" s="2">
+        <x:v>45261.6638310185</x:v>
+      </x:c>
+      <x:c r="C235" s="2">
+        <x:v>45261.6649537037</x:v>
+      </x:c>
+      <x:c r="D235" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E235" s="10" t="s"/>
+      <x:c r="F235" s="2"/>
+      <x:c r="G235" s="10" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="H235" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I235" s="7" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="J235" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K235" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L235" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M235" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N235" s="10" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="O235" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P235" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q235" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R235" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S235" s="10" t="s">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="T235" s="10" t="s">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c r="U235">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="V235" s="10" t="s">
+        <x:v>872</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236" hidden="0">
+      <x:c r="A236">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B236" s="2">
+        <x:v>45261.663287037</x:v>
+      </x:c>
+      <x:c r="C236" s="2">
+        <x:v>45261.6651041667</x:v>
+      </x:c>
+      <x:c r="D236" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E236" s="10" t="s"/>
+      <x:c r="F236" s="2"/>
+      <x:c r="G236" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H236" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I236" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J236" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K236" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L236" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M236" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N236" s="10" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="O236" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P236" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q236" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R236" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S236" s="10" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="T236" s="10" t="s"/>
+      <x:c r="U236">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V236" s="10" t="s">
+        <x:v>874</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237" hidden="0">
+      <x:c r="A237">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B237" s="2">
+        <x:v>45261.6629976852</x:v>
+      </x:c>
+      <x:c r="C237" s="2">
+        <x:v>45261.6657060185</x:v>
+      </x:c>
+      <x:c r="D237" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E237" s="10" t="s"/>
+      <x:c r="F237" s="2"/>
+      <x:c r="G237" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H237" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I237" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J237" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K237" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L237" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="M237" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N237" s="10" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="O237" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P237" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="Q237" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R237" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S237" s="10" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="T237" s="10" t="s">
+        <x:v>876</x:v>
+      </x:c>
+      <x:c r="U237">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V237" s="10" t="s">
+        <x:v>877</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238" hidden="0">
+      <x:c r="A238">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B238" s="2">
+        <x:v>45261.6653472222</x:v>
+      </x:c>
+      <x:c r="C238" s="2">
+        <x:v>45261.6669097222</x:v>
+      </x:c>
+      <x:c r="D238" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E238" s="10" t="s"/>
+      <x:c r="F238" s="2"/>
+      <x:c r="G238" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H238" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I238" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J238" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K238" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L238" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M238" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N238" s="10" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="O238" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P238" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q238" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R238" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S238" s="10" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="T238" s="10" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="U238">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V238" s="10" t="s">
+        <x:v>879</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239" hidden="0">
+      <x:c r="A239">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B239" s="2">
+        <x:v>45261.6647453704</x:v>
+      </x:c>
+      <x:c r="C239" s="2">
+        <x:v>45261.6677777778</x:v>
+      </x:c>
+      <x:c r="D239" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E239" s="10" t="s"/>
+      <x:c r="F239" s="2"/>
+      <x:c r="G239" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H239" s="10" t="s">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="I239" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J239" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K239" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L239" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M239" s="10" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="N239" s="10" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="O239" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P239" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q239" s="10" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="R239" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S239" s="10" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="T239" s="10" t="s">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="U239">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V239" s="10" t="s">
+        <x:v>883</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240" hidden="0">
+      <x:c r="A240">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B240" s="2">
+        <x:v>45261.6648958333</x:v>
+      </x:c>
+      <x:c r="C240" s="2">
+        <x:v>45261.669224537</x:v>
+      </x:c>
+      <x:c r="D240" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E240" s="10" t="s"/>
+      <x:c r="F240" s="2"/>
+      <x:c r="G240" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H240" s="10" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="I240" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J240" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K240" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L240" s="10" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="M240" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N240" s="10" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="O240" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P240" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q240" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R240" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S240" s="10" t="s">
+        <x:v>885</x:v>
+      </x:c>
+      <x:c r="T240" s="10" t="s">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c r="U240">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="V240" s="10" t="s">
+        <x:v>887</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241" hidden="0">
+      <x:c r="A241">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B241" s="2">
+        <x:v>45261.6653356481</x:v>
+      </x:c>
+      <x:c r="C241" s="2">
+        <x:v>45261.6693634259</x:v>
+      </x:c>
+      <x:c r="D241" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E241" s="10" t="s"/>
+      <x:c r="F241" s="2"/>
+      <x:c r="G241" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H241" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I241" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J241" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K241" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L241" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M241" s="10" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="N241" s="10" t="s">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="O241" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="P241" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q241" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R241" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S241" s="10" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="T241" s="10" t="s"/>
+      <x:c r="U241">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="V241" s="10" t="s">
+        <x:v>889</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242" hidden="0">
+      <x:c r="A242">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B242" s="2">
+        <x:v>45261.6599652778</x:v>
+      </x:c>
+      <x:c r="C242" s="2">
+        <x:v>45261.6700694444</x:v>
+      </x:c>
+      <x:c r="D242" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E242" s="10" t="s"/>
+      <x:c r="F242" s="2"/>
+      <x:c r="G242" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H242" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I242" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J242" s="10" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K242" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L242" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M242" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N242" s="10" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="O242" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P242" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="Q242" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R242" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S242" s="10" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="T242" s="10" t="s"/>
+      <x:c r="U242">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="V242" s="10" t="s">
+        <x:v>890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243" hidden="0">
+      <x:c r="A243">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B243" s="2">
+        <x:v>45261.6862847222</x:v>
+      </x:c>
+      <x:c r="C243" s="2">
+        <x:v>45261.6883333333</x:v>
+      </x:c>
+      <x:c r="D243" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E243" s="10" t="s"/>
+      <x:c r="F243" s="2"/>
+      <x:c r="G243" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H243" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I243" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J243" s="10" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K243" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L243" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M243" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N243" s="10" t="s">
+        <x:v>891</x:v>
+      </x:c>
+      <x:c r="O243" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P243" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q243" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R243" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="S243" s="10" t="s">
+        <x:v>892</x:v>
+      </x:c>
+      <x:c r="T243" s="10" t="s">
+        <x:v>893</x:v>
+      </x:c>
+      <x:c r="U243">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="V243" s="10" t="s">
+        <x:v>894</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244" hidden="0">
+      <x:c r="A244">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B244" s="2">
+        <x:v>45261.6834606482</x:v>
+      </x:c>
+      <x:c r="C244" s="2">
+        <x:v>45261.6889814815</x:v>
+      </x:c>
+      <x:c r="D244" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E244" s="10" t="s"/>
+      <x:c r="F244" s="2"/>
+      <x:c r="G244" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H244" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I244" s="7" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J244" s="10" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="K244" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L244" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M244" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N244" s="10" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="O244" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P244" s="10" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Q244" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="R244" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S244" s="10" t="s">
+        <x:v>895</x:v>
+      </x:c>
+      <x:c r="T244" s="10" t="s">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c r="U244">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="V244" s="10" t="s">
+        <x:v>897</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245" hidden="0">
+      <x:c r="A245">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B245" s="2">
+        <x:v>45261.6982175926</x:v>
+      </x:c>
+      <x:c r="C245" s="2">
+        <x:v>45261.7025</x:v>
+      </x:c>
+      <x:c r="D245" s="10" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E245" s="10" t="s"/>
+      <x:c r="F245" s="2"/>
+      <x:c r="G245" s="10" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H245" s="10" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I245" s="7" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="J245" s="10" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="K245" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="L245" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M245" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N245" s="10" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="O245" s="10" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="P245" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="Q245" s="10" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="R245" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="S245" s="10" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="T245" s="10" t="s">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c r="U245">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="V245" s="10" t="s">
+        <x:v>900</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R863a0a8c54924c21"/>
+    <x:tablePart r:id="Rb40e125be5234c2c"/>
   </x:tableParts>
 </x:worksheet>
 </file>